--- a/Matrice projetfinis.xlsx
+++ b/Matrice projetfinis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>ID_potion</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Nom_onguent</t>
   </si>
   <si>
-    <t>Prix_onguent</t>
-  </si>
-  <si>
     <t>ID_fournisseur</t>
   </si>
   <si>
@@ -174,6 +171,12 @@
   </si>
   <si>
     <t>Degree_ingredient</t>
+  </si>
+  <si>
+    <t>Quantite_onguent</t>
+  </si>
+  <si>
+    <t>prix_onguent</t>
   </si>
 </sst>
 </file>
@@ -623,20 +626,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW49"/>
+  <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="BA8" sqref="BA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="49" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="35" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.44140625" customWidth="1"/>
+    <col min="37" max="50" width="3.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6">
         <v>2</v>
@@ -782,8 +787,11 @@
       <c r="AW1" s="6">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX1" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -836,9 +844,10 @@
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
-      <c r="AW2" s="8"/>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="8"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -893,11 +902,12 @@
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
-      <c r="AW3" s="8"/>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="8"/>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -950,9 +960,10 @@
       <c r="AT4" s="2"/>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
-      <c r="AW4" s="8"/>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="8"/>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1009,9 +1020,10 @@
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
-      <c r="AW5" s="8"/>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="8"/>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
@@ -1064,11 +1076,12 @@
       <c r="AT6" s="2"/>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
-      <c r="AW6" s="8"/>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="8"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1078,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1121,11 +1134,12 @@
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
-      <c r="AW7" s="8"/>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="8"/>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1134,7 +1148,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1176,9 +1190,10 @@
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
-      <c r="AW8" s="8"/>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="8"/>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1192,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1233,11 +1248,12 @@
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
-      <c r="AW9" s="8"/>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="8"/>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1250,7 +1266,7 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1290,11 +1306,12 @@
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
-      <c r="AW10" s="8"/>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="8"/>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1308,7 +1325,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1347,11 +1364,12 @@
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
-      <c r="AW11" s="8"/>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="8"/>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1366,7 +1384,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1404,9 +1422,10 @@
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
-      <c r="AW12" s="8"/>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="8"/>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>3</v>
       </c>
@@ -1422,7 +1441,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1459,11 +1478,12 @@
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
-      <c r="AW13" s="8"/>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="8"/>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1480,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -1516,11 +1536,12 @@
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
-      <c r="AW14" s="8"/>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="8"/>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1571,11 +1592,12 @@
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
-      <c r="AW15" s="8"/>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="8"/>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1624,9 +1646,10 @@
       <c r="AT16" s="2"/>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
-      <c r="AW16" s="8"/>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="8"/>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>6</v>
       </c>
@@ -1648,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1681,9 +1704,10 @@
       <c r="AT17" s="2"/>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
-      <c r="AW17" s="8"/>
-    </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="8"/>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>7</v>
       </c>
@@ -1706,7 +1730,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -1738,9 +1762,10 @@
       <c r="AT18" s="2"/>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
-      <c r="AW18" s="8"/>
-    </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="8"/>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>8</v>
       </c>
@@ -1762,7 +1787,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -1793,9 +1818,10 @@
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
-      <c r="AW19" s="8"/>
-    </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="8"/>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>9</v>
       </c>
@@ -1820,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -1850,9 +1876,10 @@
       <c r="AT20" s="2"/>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
-      <c r="AW20" s="8"/>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="8"/>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>10</v>
       </c>
@@ -1880,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -1909,11 +1936,12 @@
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
-      <c r="AW21" s="8"/>
-    </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="8"/>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1940,7 +1968,7 @@
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -1968,11 +1996,12 @@
       <c r="AT22" s="2"/>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
-      <c r="AW22" s="8"/>
-    </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="8"/>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1996,7 +2025,7 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
@@ -2023,9 +2052,10 @@
       <c r="AT23" s="2"/>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
-      <c r="AW23" s="8"/>
-    </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="8"/>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>11</v>
       </c>
@@ -2054,7 +2084,7 @@
         <v>1</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
@@ -2080,9 +2110,10 @@
       <c r="AT24" s="2"/>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
-      <c r="AW24" s="8"/>
-    </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="8"/>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>12</v>
       </c>
@@ -2112,7 +2143,7 @@
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
@@ -2137,11 +2168,12 @@
       <c r="AT25" s="2"/>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
-      <c r="AW25" s="8"/>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="8"/>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2170,7 +2202,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
@@ -2194,11 +2226,12 @@
       <c r="AT26" s="2"/>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
-      <c r="AW26" s="8"/>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="8"/>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2228,7 +2261,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -2251,11 +2284,12 @@
       <c r="AT27" s="2"/>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
-      <c r="AW27" s="8"/>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="8"/>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2306,9 +2340,10 @@
       <c r="AT28" s="2"/>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
-      <c r="AW28" s="8"/>
-    </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="8"/>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>13</v>
       </c>
@@ -2359,9 +2394,10 @@
       <c r="AT29" s="4"/>
       <c r="AU29" s="4"/>
       <c r="AV29" s="4"/>
-      <c r="AW29" s="9"/>
-    </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="9"/>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>14</v>
       </c>
@@ -2414,9 +2450,10 @@
       <c r="AT30" s="4"/>
       <c r="AU30" s="4"/>
       <c r="AV30" s="4"/>
-      <c r="AW30" s="9"/>
-    </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW30" s="4"/>
+      <c r="AX30" s="9"/>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>15</v>
       </c>
@@ -2431,7 +2468,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="8"/>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -2469,9 +2506,10 @@
       <c r="AT31" s="4"/>
       <c r="AU31" s="4"/>
       <c r="AV31" s="4"/>
-      <c r="AW31" s="9"/>
-    </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW31" s="4"/>
+      <c r="AX31" s="9"/>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>16</v>
       </c>
@@ -2524,9 +2562,10 @@
       <c r="AT32" s="4"/>
       <c r="AU32" s="4"/>
       <c r="AV32" s="4"/>
-      <c r="AW32" s="9"/>
-    </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW32" s="4"/>
+      <c r="AX32" s="9"/>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>17</v>
       </c>
@@ -2577,9 +2616,10 @@
       <c r="AT33" s="4"/>
       <c r="AU33" s="4"/>
       <c r="AV33" s="4"/>
-      <c r="AW33" s="9"/>
-    </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW33" s="4"/>
+      <c r="AX33" s="9"/>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>18</v>
       </c>
@@ -2632,11 +2672,12 @@
       <c r="AT34" s="4"/>
       <c r="AU34" s="4"/>
       <c r="AV34" s="4"/>
-      <c r="AW34" s="9"/>
-    </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW34" s="4"/>
+      <c r="AX34" s="9"/>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2687,11 +2728,12 @@
       <c r="AT35" s="4"/>
       <c r="AU35" s="4"/>
       <c r="AV35" s="4"/>
-      <c r="AW35" s="9"/>
-    </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW35" s="4"/>
+      <c r="AX35" s="9"/>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2724,9 +2766,13 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="4"/>
+      <c r="AG36" s="4">
+        <v>1</v>
+      </c>
       <c r="AH36" s="4"/>
-      <c r="AI36" s="4"/>
+      <c r="AI36" s="4">
+        <v>1</v>
+      </c>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
@@ -2740,11 +2786,12 @@
       <c r="AT36" s="4"/>
       <c r="AU36" s="4"/>
       <c r="AV36" s="4"/>
-      <c r="AW36" s="9"/>
-    </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="9"/>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2780,9 +2827,7 @@
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
-      <c r="AJ37" s="4">
-        <v>1</v>
-      </c>
+      <c r="AJ37" s="4"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="4"/>
       <c r="AM37" s="4"/>
@@ -2795,11 +2840,12 @@
       <c r="AT37" s="4"/>
       <c r="AU37" s="4"/>
       <c r="AV37" s="4"/>
-      <c r="AW37" s="9"/>
-    </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW37" s="4"/>
+      <c r="AX37" s="9"/>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2835,10 +2881,10 @@
       <c r="AG38" s="4"/>
       <c r="AH38" s="4"/>
       <c r="AI38" s="4"/>
-      <c r="AJ38" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4">
+        <v>1</v>
+      </c>
       <c r="AL38" s="1"/>
       <c r="AM38" s="4"/>
       <c r="AN38" s="4"/>
@@ -2850,10 +2896,11 @@
       <c r="AT38" s="4"/>
       <c r="AU38" s="4"/>
       <c r="AV38" s="4"/>
-      <c r="AW38" s="9"/>
-    </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="AW38" s="4"/>
+      <c r="AX38" s="9"/>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
@@ -2891,7 +2938,9 @@
       <c r="AH39" s="4"/>
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
+      <c r="AK39" s="4">
+        <v>1</v>
+      </c>
       <c r="AL39" s="4"/>
       <c r="AM39" s="1"/>
       <c r="AN39" s="4"/>
@@ -2903,11 +2952,12 @@
       <c r="AT39" s="4"/>
       <c r="AU39" s="4"/>
       <c r="AV39" s="4"/>
-      <c r="AW39" s="9"/>
-    </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW39" s="4"/>
+      <c r="AX39" s="9"/>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2946,9 +2996,7 @@
       <c r="AJ40" s="4"/>
       <c r="AK40" s="4"/>
       <c r="AL40" s="4"/>
-      <c r="AM40" s="4">
-        <v>1</v>
-      </c>
+      <c r="AM40" s="4"/>
       <c r="AN40" s="1"/>
       <c r="AO40" s="4"/>
       <c r="AP40" s="4"/>
@@ -2958,11 +3006,12 @@
       <c r="AT40" s="4"/>
       <c r="AU40" s="4"/>
       <c r="AV40" s="4"/>
-      <c r="AW40" s="9"/>
-    </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW40" s="4"/>
+      <c r="AX40" s="9"/>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3001,9 +3050,7 @@
       <c r="AJ41" s="4"/>
       <c r="AK41" s="4"/>
       <c r="AL41" s="4"/>
-      <c r="AM41" s="4">
-        <v>1</v>
-      </c>
+      <c r="AM41" s="4"/>
       <c r="AN41" s="4">
         <v>1</v>
       </c>
@@ -3015,11 +3062,12 @@
       <c r="AT41" s="4"/>
       <c r="AU41" s="4"/>
       <c r="AV41" s="4"/>
-      <c r="AW41" s="9"/>
-    </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW41" s="4"/>
+      <c r="AX41" s="9"/>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3059,8 +3107,12 @@
       <c r="AK42" s="4"/>
       <c r="AL42" s="4"/>
       <c r="AM42" s="4"/>
-      <c r="AN42" s="4"/>
-      <c r="AO42" s="4"/>
+      <c r="AN42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="4">
+        <v>1</v>
+      </c>
       <c r="AP42" s="1"/>
       <c r="AQ42" s="4"/>
       <c r="AR42" s="4"/>
@@ -3068,11 +3120,12 @@
       <c r="AT42" s="4"/>
       <c r="AU42" s="4"/>
       <c r="AV42" s="4"/>
-      <c r="AW42" s="9"/>
-    </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW42" s="4"/>
+      <c r="AX42" s="9"/>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3114,20 +3167,19 @@
       <c r="AM43" s="4"/>
       <c r="AN43" s="4"/>
       <c r="AO43" s="4"/>
-      <c r="AP43" s="4">
-        <v>1</v>
-      </c>
+      <c r="AP43" s="4"/>
       <c r="AQ43" s="1"/>
       <c r="AR43" s="4"/>
       <c r="AS43" s="4"/>
       <c r="AT43" s="4"/>
       <c r="AU43" s="4"/>
       <c r="AV43" s="4"/>
-      <c r="AW43" s="9"/>
-    </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW43" s="4"/>
+      <c r="AX43" s="9"/>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3169,20 +3221,21 @@
       <c r="AM44" s="4"/>
       <c r="AN44" s="4"/>
       <c r="AO44" s="4"/>
-      <c r="AP44" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ44" s="4"/>
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="4">
+        <v>1</v>
+      </c>
       <c r="AR44" s="1"/>
       <c r="AS44" s="4"/>
       <c r="AT44" s="4"/>
       <c r="AU44" s="4"/>
       <c r="AV44" s="4"/>
-      <c r="AW44" s="9"/>
-    </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW44" s="4"/>
+      <c r="AX44" s="9"/>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3224,20 +3277,21 @@
       <c r="AM45" s="4"/>
       <c r="AN45" s="4"/>
       <c r="AO45" s="4"/>
-      <c r="AP45" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ45" s="4"/>
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="4">
+        <v>1</v>
+      </c>
       <c r="AR45" s="4"/>
       <c r="AS45" s="1"/>
       <c r="AT45" s="4"/>
       <c r="AU45" s="4"/>
       <c r="AV45" s="4"/>
-      <c r="AW45" s="9"/>
-    </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW45" s="4"/>
+      <c r="AX45" s="9"/>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3279,20 +3333,21 @@
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
       <c r="AO46" s="4"/>
-      <c r="AP46" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ46" s="4"/>
+      <c r="AP46" s="4"/>
+      <c r="AQ46" s="4">
+        <v>1</v>
+      </c>
       <c r="AR46" s="4"/>
       <c r="AS46" s="4"/>
       <c r="AT46" s="1"/>
       <c r="AU46" s="4"/>
       <c r="AV46" s="4"/>
-      <c r="AW46" s="9"/>
-    </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW46" s="4"/>
+      <c r="AX46" s="9"/>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3334,20 +3389,21 @@
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
       <c r="AO47" s="4"/>
-      <c r="AP47" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ47" s="4"/>
+      <c r="AP47" s="4"/>
+      <c r="AQ47" s="4">
+        <v>1</v>
+      </c>
       <c r="AR47" s="4"/>
       <c r="AS47" s="4"/>
       <c r="AT47" s="4"/>
       <c r="AU47" s="1"/>
       <c r="AV47" s="4"/>
-      <c r="AW47" s="9"/>
-    </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW47" s="4"/>
+      <c r="AX47" s="9"/>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3390,68 +3446,126 @@
       <c r="AN48" s="4"/>
       <c r="AO48" s="4"/>
       <c r="AP48" s="4"/>
-      <c r="AQ48" s="4"/>
+      <c r="AQ48" s="4">
+        <v>1</v>
+      </c>
       <c r="AR48" s="4"/>
       <c r="AS48" s="4"/>
       <c r="AT48" s="4"/>
       <c r="AU48" s="4"/>
       <c r="AV48" s="1"/>
-      <c r="AW48" s="9"/>
-    </row>
-    <row r="49" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW48" s="4"/>
+      <c r="AX48" s="9"/>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-      <c r="AF49" s="3"/>
-      <c r="AG49" s="7"/>
-      <c r="AH49" s="7"/>
-      <c r="AI49" s="7"/>
-      <c r="AJ49" s="7"/>
-      <c r="AK49" s="7"/>
-      <c r="AL49" s="7"/>
-      <c r="AM49" s="7"/>
-      <c r="AN49" s="7"/>
-      <c r="AO49" s="7"/>
-      <c r="AP49" s="7"/>
-      <c r="AQ49" s="7"/>
-      <c r="AR49" s="7"/>
-      <c r="AS49" s="7"/>
-      <c r="AT49" s="7"/>
-      <c r="AU49" s="7"/>
-      <c r="AV49" s="7">
-        <v>1</v>
-      </c>
-      <c r="AW49" s="10">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="4"/>
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="4"/>
+      <c r="AO49" s="4"/>
+      <c r="AP49" s="4"/>
+      <c r="AQ49" s="4"/>
+      <c r="AR49" s="4"/>
+      <c r="AS49" s="4"/>
+      <c r="AT49" s="4"/>
+      <c r="AU49" s="4"/>
+      <c r="AV49" s="4"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="9"/>
+    </row>
+    <row r="50" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+      <c r="AP50" s="7"/>
+      <c r="AQ50" s="7"/>
+      <c r="AR50" s="7"/>
+      <c r="AS50" s="7"/>
+      <c r="AT50" s="7"/>
+      <c r="AU50" s="7"/>
+      <c r="AV50" s="7"/>
+      <c r="AW50" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX50" s="10">
         <v>1</v>
       </c>
     </row>

--- a/Matrice projetfinis.xlsx
+++ b/Matrice projetfinis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>ID_potion</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>Sortie_fraicheur</t>
-  </si>
-  <si>
-    <t>Ingredient_fraicheur</t>
   </si>
   <si>
     <t>Numero_siret</t>
@@ -199,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,28 +215,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -267,12 +249,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -281,6 +265,37 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -294,24 +309,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX50"/>
+  <dimension ref="A1:AX51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BA8" sqref="BA8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,161 +654,159 @@
     <col min="2" max="9" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="35" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.44140625" customWidth="1"/>
-    <col min="37" max="50" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="49" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4">
         <v>2</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="4">
         <v>3</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="4">
         <v>4</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="4">
         <v>5</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="4">
         <v>6</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="4">
         <v>7</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="4">
         <v>8</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="4">
         <v>9</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="4">
         <v>10</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="4">
         <v>11</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="4">
         <v>12</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="4">
         <v>13</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="4">
         <v>14</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="4">
         <v>15</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="4">
         <v>16</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="4">
         <v>17</v>
       </c>
-      <c r="R1" s="6">
+      <c r="R1" s="4">
         <v>18</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="4">
         <v>19</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="4">
         <v>20</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="4">
         <v>21</v>
       </c>
-      <c r="V1" s="6">
+      <c r="V1" s="4">
         <v>22</v>
       </c>
-      <c r="W1" s="6">
+      <c r="W1" s="4">
         <v>23</v>
       </c>
-      <c r="X1" s="6">
+      <c r="X1" s="4">
         <v>24</v>
       </c>
-      <c r="Y1" s="6">
+      <c r="Y1" s="4">
         <v>25</v>
       </c>
-      <c r="Z1" s="6">
+      <c r="Z1" s="4">
         <v>26</v>
       </c>
-      <c r="AA1" s="6">
+      <c r="AA1" s="4">
         <v>27</v>
       </c>
-      <c r="AB1" s="6">
+      <c r="AB1" s="4">
         <v>28</v>
       </c>
-      <c r="AC1" s="6">
+      <c r="AC1" s="4">
         <v>29</v>
       </c>
-      <c r="AD1" s="6">
+      <c r="AD1" s="4">
         <v>30</v>
       </c>
-      <c r="AE1" s="6">
+      <c r="AE1" s="4">
         <v>31</v>
       </c>
-      <c r="AF1" s="6">
+      <c r="AF1" s="4">
         <v>32</v>
       </c>
-      <c r="AG1" s="6">
+      <c r="AG1" s="4">
         <v>33</v>
       </c>
-      <c r="AH1" s="6">
+      <c r="AH1" s="4">
         <v>34</v>
       </c>
-      <c r="AI1" s="6">
+      <c r="AI1" s="4">
         <v>35</v>
       </c>
-      <c r="AJ1" s="6">
+      <c r="AJ1" s="4">
         <v>36</v>
       </c>
-      <c r="AK1" s="6">
+      <c r="AK1" s="4">
         <v>37</v>
       </c>
-      <c r="AL1" s="6">
+      <c r="AL1" s="4">
         <v>38</v>
       </c>
-      <c r="AM1" s="6">
+      <c r="AM1" s="4">
         <v>39</v>
       </c>
-      <c r="AN1" s="6">
+      <c r="AN1" s="4">
         <v>40</v>
       </c>
-      <c r="AO1" s="6">
+      <c r="AO1" s="4">
         <v>41</v>
       </c>
-      <c r="AP1" s="6">
+      <c r="AP1" s="4">
         <v>42</v>
       </c>
-      <c r="AQ1" s="6">
+      <c r="AQ1" s="4">
         <v>43</v>
       </c>
-      <c r="AR1" s="6">
+      <c r="AR1" s="4">
         <v>44</v>
       </c>
-      <c r="AS1" s="6">
+      <c r="AS1" s="4">
         <v>45</v>
       </c>
-      <c r="AT1" s="6">
+      <c r="AT1" s="4">
         <v>46</v>
       </c>
-      <c r="AU1" s="6">
+      <c r="AU1" s="4">
         <v>47</v>
       </c>
-      <c r="AV1" s="6">
+      <c r="AV1" s="4">
         <v>48</v>
       </c>
-      <c r="AW1" s="6">
+      <c r="AW1" s="9">
         <v>49</v>
       </c>
-      <c r="AX1" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -844,11 +858,10 @@
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="8"/>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="AW2" s="10"/>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
@@ -902,11 +915,10 @@
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="8"/>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="AW3" s="5"/>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2">
@@ -960,14 +972,13 @@
       <c r="AT4" s="2"/>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="8"/>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="AW4" s="5"/>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
@@ -1020,11 +1031,10 @@
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="8"/>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="AW5" s="5"/>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
@@ -1076,11 +1086,10 @@
       <c r="AT6" s="2"/>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="8"/>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="AW6" s="5"/>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="2"/>
@@ -1134,11 +1143,10 @@
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="8"/>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="AW7" s="5"/>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="2"/>
@@ -1190,11 +1198,10 @@
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="8"/>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="AW8" s="5"/>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2"/>
@@ -1248,11 +1255,10 @@
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="8"/>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="AW9" s="5"/>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="2"/>
@@ -1306,11 +1312,10 @@
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="8"/>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="AW10" s="5"/>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="2"/>
@@ -1364,11 +1369,10 @@
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="8"/>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="AW11" s="5"/>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="2"/>
@@ -1377,7 +1381,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>1</v>
       </c>
       <c r="I12" s="2"/>
@@ -1422,11 +1426,10 @@
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
-      <c r="AW12" s="2"/>
-      <c r="AX12" s="8"/>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="AW12" s="5"/>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2"/>
@@ -1478,11 +1481,10 @@
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
-      <c r="AW13" s="2"/>
-      <c r="AX13" s="8"/>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="AW13" s="5"/>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="2"/>
@@ -1536,12 +1538,11 @@
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="8"/>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>47</v>
+      <c r="AW14" s="5"/>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1557,7 +1558,7 @@
       <c r="M15" s="2">
         <v>1</v>
       </c>
-      <c r="N15" s="4"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="1"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1592,11 +1593,10 @@
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="8"/>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="AW15" s="5"/>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="2"/>
@@ -1611,8 +1611,8 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1646,11 +1646,10 @@
       <c r="AT16" s="2"/>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
-      <c r="AX16" s="8"/>
+      <c r="AW16" s="5"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="2"/>
@@ -1665,8 +1664,8 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="2">
         <v>1</v>
       </c>
@@ -1704,11 +1703,10 @@
       <c r="AT17" s="2"/>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
-      <c r="AW17" s="2"/>
-      <c r="AX17" s="8"/>
+      <c r="AW17" s="5"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="2"/>
@@ -1762,11 +1760,10 @@
       <c r="AT18" s="2"/>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
-      <c r="AW18" s="2"/>
-      <c r="AX18" s="8"/>
+      <c r="AW18" s="5"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="2"/>
@@ -1818,11 +1815,10 @@
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="8"/>
+      <c r="AW19" s="5"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="2"/>
@@ -1876,11 +1872,10 @@
       <c r="AT20" s="2"/>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
-      <c r="AW20" s="2"/>
-      <c r="AX20" s="8"/>
+      <c r="AW20" s="5"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="2"/>
@@ -1936,11 +1931,10 @@
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
-      <c r="AW21" s="2"/>
-      <c r="AX21" s="8"/>
+      <c r="AW21" s="5"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="2"/>
@@ -1996,11 +1990,10 @@
       <c r="AT22" s="2"/>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
-      <c r="AW22" s="2"/>
-      <c r="AX22" s="8"/>
+      <c r="AW22" s="5"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="2"/>
@@ -2052,11 +2045,10 @@
       <c r="AT23" s="2"/>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="8"/>
+      <c r="AW23" s="5"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
@@ -2110,11 +2102,10 @@
       <c r="AT24" s="2"/>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="8"/>
+      <c r="AW24" s="5"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2"/>
@@ -2168,11 +2159,10 @@
       <c r="AT25" s="2"/>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="8"/>
+      <c r="AW25" s="5"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="2"/>
@@ -2226,12 +2216,11 @@
       <c r="AT26" s="2"/>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="8"/>
+      <c r="AW26" s="5"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>37</v>
+      <c r="A27" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2254,7 +2243,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="4">
+      <c r="W27" s="3">
         <v>1</v>
       </c>
       <c r="X27" s="2"/>
@@ -2284,12 +2273,11 @@
       <c r="AT27" s="2"/>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
-      <c r="AW27" s="2"/>
-      <c r="AX27" s="8"/>
+      <c r="AW27" s="5"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>48</v>
+      <c r="A28" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2312,17 +2300,15 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-      <c r="W28" s="4">
-        <v>1</v>
-      </c>
+      <c r="W28" s="3"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="4"/>
+      <c r="AA28" s="3"/>
       <c r="AB28" s="1"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
@@ -2340,12 +2326,11 @@
       <c r="AT28" s="2"/>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
-      <c r="AW28" s="2"/>
-      <c r="AX28" s="8"/>
+      <c r="AW28" s="5"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>13</v>
+      <c r="A29" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2372,34 +2357,36 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3">
+        <v>1</v>
+      </c>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
       <c r="AF29" s="2"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
-      <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="4"/>
-      <c r="AT29" s="4"/>
-      <c r="AU29" s="4"/>
-      <c r="AV29" s="4"/>
-      <c r="AW29" s="4"/>
-      <c r="AX29" s="9"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="6"/>
+      <c r="AX29" s="3"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>14</v>
+      <c r="A30" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2426,36 +2413,36 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4">
-        <v>1</v>
-      </c>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="3"/>
       <c r="AD30" s="1"/>
-      <c r="AE30" s="4"/>
+      <c r="AE30" s="3"/>
       <c r="AF30" s="2"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
-      <c r="AI30" s="4"/>
-      <c r="AJ30" s="4"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="4"/>
-      <c r="AM30" s="4"/>
-      <c r="AN30" s="4"/>
-      <c r="AO30" s="4"/>
-      <c r="AP30" s="4"/>
-      <c r="AQ30" s="4"/>
-      <c r="AR30" s="4"/>
-      <c r="AS30" s="4"/>
-      <c r="AT30" s="4"/>
-      <c r="AU30" s="4"/>
-      <c r="AV30" s="4"/>
-      <c r="AW30" s="4"/>
-      <c r="AX30" s="9"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="6"/>
+      <c r="AX30" s="3"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>15</v>
+      <c r="A31" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2482,36 +2469,36 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="4"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="2"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
-      <c r="AI31" s="4"/>
-      <c r="AJ31" s="4"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="4"/>
-      <c r="AM31" s="4"/>
-      <c r="AN31" s="4"/>
-      <c r="AO31" s="4"/>
-      <c r="AP31" s="4"/>
-      <c r="AQ31" s="4"/>
-      <c r="AR31" s="4"/>
-      <c r="AS31" s="4"/>
-      <c r="AT31" s="4"/>
-      <c r="AU31" s="4"/>
-      <c r="AV31" s="4"/>
-      <c r="AW31" s="4"/>
-      <c r="AX31" s="9"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="6"/>
+      <c r="AX31" s="3"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>16</v>
+      <c r="A32" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2538,36 +2525,34 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
       <c r="AF32" s="1"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="4"/>
-      <c r="AM32" s="4"/>
-      <c r="AN32" s="4"/>
-      <c r="AO32" s="4"/>
-      <c r="AP32" s="4"/>
-      <c r="AQ32" s="4"/>
-      <c r="AR32" s="4"/>
-      <c r="AS32" s="4"/>
-      <c r="AT32" s="4"/>
-      <c r="AU32" s="4"/>
-      <c r="AV32" s="4"/>
-      <c r="AW32" s="4"/>
-      <c r="AX32" s="9"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="6"/>
+      <c r="AX32" s="3"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>17</v>
+      <c r="A33" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2594,34 +2579,36 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="5"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3">
+        <v>1</v>
+      </c>
       <c r="AG33" s="1"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
-      <c r="AN33" s="4"/>
-      <c r="AO33" s="4"/>
-      <c r="AP33" s="4"/>
-      <c r="AQ33" s="4"/>
-      <c r="AR33" s="4"/>
-      <c r="AS33" s="4"/>
-      <c r="AT33" s="4"/>
-      <c r="AU33" s="4"/>
-      <c r="AV33" s="4"/>
-      <c r="AW33" s="4"/>
-      <c r="AX33" s="9"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="6"/>
+      <c r="AX33" s="3"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
-        <v>18</v>
+      <c r="A34" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2648,35 +2635,35 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="4">
-        <v>1</v>
-      </c>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="3"/>
       <c r="AH34" s="1"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="4"/>
-      <c r="AM34" s="4"/>
-      <c r="AN34" s="4"/>
-      <c r="AO34" s="4"/>
-      <c r="AP34" s="4"/>
-      <c r="AQ34" s="4"/>
-      <c r="AR34" s="4"/>
-      <c r="AS34" s="4"/>
-      <c r="AT34" s="4"/>
-      <c r="AU34" s="4"/>
-      <c r="AV34" s="4"/>
-      <c r="AW34" s="4"/>
-      <c r="AX34" s="9"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="6"/>
+      <c r="AX34" s="3"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="2"/>
@@ -2709,31 +2696,33 @@
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH35" s="4"/>
+      <c r="AF35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3">
+        <v>1</v>
+      </c>
       <c r="AI35" s="1"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
-      <c r="AS35" s="4"/>
-      <c r="AT35" s="4"/>
-      <c r="AU35" s="4"/>
-      <c r="AV35" s="4"/>
-      <c r="AW35" s="4"/>
-      <c r="AX35" s="9"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="6"/>
+      <c r="AX35" s="3"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>50</v>
+      <c r="A36" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2766,32 +2755,28 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="4">
-        <v>1</v>
-      </c>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
       <c r="AJ36" s="1"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="4"/>
-      <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
-      <c r="AS36" s="4"/>
-      <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
-      <c r="AV36" s="4"/>
-      <c r="AW36" s="4"/>
-      <c r="AX36" s="9"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="6"/>
+      <c r="AX36" s="3"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>19</v>
+      <c r="A37" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2824,28 +2809,30 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3">
+        <v>1</v>
+      </c>
       <c r="AK37" s="1"/>
-      <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="4"/>
-      <c r="AO37" s="4"/>
-      <c r="AP37" s="4"/>
-      <c r="AQ37" s="4"/>
-      <c r="AR37" s="4"/>
-      <c r="AS37" s="4"/>
-      <c r="AT37" s="4"/>
-      <c r="AU37" s="4"/>
-      <c r="AV37" s="4"/>
-      <c r="AW37" s="4"/>
-      <c r="AX37" s="9"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="6"/>
+      <c r="AX37" s="3"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>20</v>
+      <c r="A38" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2878,30 +2865,30 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-      <c r="AI38" s="4"/>
-      <c r="AJ38" s="4"/>
-      <c r="AK38" s="4">
-        <v>1</v>
-      </c>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="3"/>
       <c r="AL38" s="1"/>
-      <c r="AM38" s="4"/>
-      <c r="AN38" s="4"/>
-      <c r="AO38" s="4"/>
-      <c r="AP38" s="4"/>
-      <c r="AQ38" s="4"/>
-      <c r="AR38" s="4"/>
-      <c r="AS38" s="4"/>
-      <c r="AT38" s="4"/>
-      <c r="AU38" s="4"/>
-      <c r="AV38" s="4"/>
-      <c r="AW38" s="4"/>
-      <c r="AX38" s="9"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="6"/>
+      <c r="AX38" s="3"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>22</v>
+      <c r="A39" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2934,30 +2921,28 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL39" s="4"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
       <c r="AM39" s="1"/>
-      <c r="AN39" s="4"/>
-      <c r="AO39" s="4"/>
-      <c r="AP39" s="4"/>
-      <c r="AQ39" s="4"/>
-      <c r="AR39" s="4"/>
-      <c r="AS39" s="4"/>
-      <c r="AT39" s="4"/>
-      <c r="AU39" s="4"/>
-      <c r="AV39" s="4"/>
-      <c r="AW39" s="4"/>
-      <c r="AX39" s="9"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="6"/>
+      <c r="AX39" s="3"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>21</v>
+      <c r="A40" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2990,28 +2975,30 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="4"/>
-      <c r="AM40" s="4"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3">
+        <v>1</v>
+      </c>
       <c r="AN40" s="1"/>
-      <c r="AO40" s="4"/>
-      <c r="AP40" s="4"/>
-      <c r="AQ40" s="4"/>
-      <c r="AR40" s="4"/>
-      <c r="AS40" s="4"/>
-      <c r="AT40" s="4"/>
-      <c r="AU40" s="4"/>
-      <c r="AV40" s="4"/>
-      <c r="AW40" s="4"/>
-      <c r="AX40" s="9"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="6"/>
+      <c r="AX40" s="3"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>23</v>
+      <c r="A41" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3044,29 +3031,31 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
-      <c r="AI41" s="4"/>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="4"/>
-      <c r="AL41" s="4"/>
-      <c r="AM41" s="4"/>
-      <c r="AN41" s="4">
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="3">
         <v>1</v>
       </c>
       <c r="AO41" s="1"/>
-      <c r="AP41" s="4"/>
-      <c r="AQ41" s="4"/>
-      <c r="AR41" s="4"/>
-      <c r="AS41" s="4"/>
-      <c r="AT41" s="4"/>
-      <c r="AU41" s="4"/>
-      <c r="AV41" s="4"/>
-      <c r="AW41" s="4"/>
-      <c r="AX41" s="9"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="6"/>
+      <c r="AX41" s="3"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="2"/>
@@ -3100,31 +3089,27 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
-      <c r="AN42" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO42" s="4">
-        <v>1</v>
-      </c>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
       <c r="AP42" s="1"/>
-      <c r="AQ42" s="4"/>
-      <c r="AR42" s="4"/>
-      <c r="AS42" s="4"/>
-      <c r="AT42" s="4"/>
-      <c r="AU42" s="4"/>
-      <c r="AV42" s="4"/>
-      <c r="AW42" s="4"/>
-      <c r="AX42" s="9"/>
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="6"/>
+      <c r="AX42" s="3"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="2"/>
@@ -3158,27 +3143,29 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
-      <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
-      <c r="AI43" s="4"/>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="4"/>
-      <c r="AL43" s="4"/>
-      <c r="AM43" s="4"/>
-      <c r="AN43" s="4"/>
-      <c r="AO43" s="4"/>
-      <c r="AP43" s="4"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3">
+        <v>1</v>
+      </c>
       <c r="AQ43" s="1"/>
-      <c r="AR43" s="4"/>
-      <c r="AS43" s="4"/>
-      <c r="AT43" s="4"/>
-      <c r="AU43" s="4"/>
-      <c r="AV43" s="4"/>
-      <c r="AW43" s="4"/>
-      <c r="AX43" s="9"/>
+      <c r="AR43" s="3"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="6"/>
+      <c r="AX43" s="3"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
@@ -3212,29 +3199,29 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
-      <c r="AG44" s="4"/>
-      <c r="AH44" s="4"/>
-      <c r="AI44" s="4"/>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="4"/>
-      <c r="AM44" s="4"/>
-      <c r="AN44" s="4"/>
-      <c r="AO44" s="4"/>
-      <c r="AP44" s="4"/>
-      <c r="AQ44" s="4">
-        <v>1</v>
-      </c>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="3"/>
       <c r="AR44" s="1"/>
-      <c r="AS44" s="4"/>
-      <c r="AT44" s="4"/>
-      <c r="AU44" s="4"/>
-      <c r="AV44" s="4"/>
-      <c r="AW44" s="4"/>
-      <c r="AX44" s="9"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
+      <c r="AW44" s="6"/>
+      <c r="AX44" s="3"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="2"/>
@@ -3268,29 +3255,29 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
-      <c r="AG45" s="4"/>
-      <c r="AH45" s="4"/>
-      <c r="AI45" s="4"/>
-      <c r="AJ45" s="4"/>
-      <c r="AK45" s="4"/>
-      <c r="AL45" s="4"/>
-      <c r="AM45" s="4"/>
-      <c r="AN45" s="4"/>
-      <c r="AO45" s="4"/>
-      <c r="AP45" s="4"/>
-      <c r="AQ45" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR45" s="4"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ45" s="3"/>
+      <c r="AR45" s="3"/>
       <c r="AS45" s="1"/>
-      <c r="AT45" s="4"/>
-      <c r="AU45" s="4"/>
-      <c r="AV45" s="4"/>
-      <c r="AW45" s="4"/>
-      <c r="AX45" s="9"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="3"/>
+      <c r="AW45" s="6"/>
+      <c r="AX45" s="3"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="2"/>
@@ -3324,29 +3311,29 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
-      <c r="AG46" s="4"/>
-      <c r="AH46" s="4"/>
-      <c r="AI46" s="4"/>
-      <c r="AJ46" s="4"/>
-      <c r="AK46" s="4"/>
-      <c r="AL46" s="4"/>
-      <c r="AM46" s="4"/>
-      <c r="AN46" s="4"/>
-      <c r="AO46" s="4"/>
-      <c r="AP46" s="4"/>
-      <c r="AQ46" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR46" s="4"/>
-      <c r="AS46" s="4"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="3"/>
+      <c r="AM46" s="3"/>
+      <c r="AN46" s="3"/>
+      <c r="AO46" s="3"/>
+      <c r="AP46" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ46" s="3"/>
+      <c r="AR46" s="3"/>
+      <c r="AS46" s="3"/>
       <c r="AT46" s="1"/>
-      <c r="AU46" s="4"/>
-      <c r="AV46" s="4"/>
-      <c r="AW46" s="4"/>
-      <c r="AX46" s="9"/>
+      <c r="AU46" s="3"/>
+      <c r="AV46" s="3"/>
+      <c r="AW46" s="6"/>
+      <c r="AX46" s="3"/>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="2"/>
@@ -3380,29 +3367,29 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
-      <c r="AG47" s="4"/>
-      <c r="AH47" s="4"/>
-      <c r="AI47" s="4"/>
-      <c r="AJ47" s="4"/>
-      <c r="AK47" s="4"/>
-      <c r="AL47" s="4"/>
-      <c r="AM47" s="4"/>
-      <c r="AN47" s="4"/>
-      <c r="AO47" s="4"/>
-      <c r="AP47" s="4"/>
-      <c r="AQ47" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR47" s="4"/>
-      <c r="AS47" s="4"/>
-      <c r="AT47" s="4"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="3"/>
+      <c r="AT47" s="3"/>
       <c r="AU47" s="1"/>
-      <c r="AV47" s="4"/>
-      <c r="AW47" s="4"/>
-      <c r="AX47" s="9"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="6"/>
+      <c r="AX47" s="3"/>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="2"/>
@@ -3436,138 +3423,181 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
-      <c r="AG48" s="4"/>
-      <c r="AH48" s="4"/>
-      <c r="AI48" s="4"/>
-      <c r="AJ48" s="4"/>
-      <c r="AK48" s="4"/>
-      <c r="AL48" s="4"/>
-      <c r="AM48" s="4"/>
-      <c r="AN48" s="4"/>
-      <c r="AO48" s="4"/>
-      <c r="AP48" s="4"/>
-      <c r="AQ48" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR48" s="4"/>
-      <c r="AS48" s="4"/>
-      <c r="AT48" s="4"/>
-      <c r="AU48" s="4"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
       <c r="AV48" s="1"/>
-      <c r="AW48" s="4"/>
-      <c r="AX48" s="9"/>
+      <c r="AW48" s="6"/>
+      <c r="AX48" s="3"/>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="4"/>
-      <c r="AH49" s="4"/>
-      <c r="AI49" s="4"/>
-      <c r="AJ49" s="4"/>
-      <c r="AK49" s="4"/>
-      <c r="AL49" s="4"/>
-      <c r="AM49" s="4"/>
-      <c r="AN49" s="4"/>
-      <c r="AO49" s="4"/>
-      <c r="AP49" s="4"/>
-      <c r="AQ49" s="4"/>
-      <c r="AR49" s="4"/>
-      <c r="AS49" s="4"/>
-      <c r="AT49" s="4"/>
-      <c r="AU49" s="4"/>
-      <c r="AV49" s="4"/>
-      <c r="AW49" s="1"/>
-      <c r="AX49" s="9"/>
-    </row>
-    <row r="50" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-      <c r="AF50" s="3"/>
-      <c r="AG50" s="7"/>
-      <c r="AH50" s="7"/>
-      <c r="AI50" s="7"/>
-      <c r="AJ50" s="7"/>
-      <c r="AK50" s="7"/>
-      <c r="AL50" s="7"/>
-      <c r="AM50" s="7"/>
-      <c r="AN50" s="7"/>
-      <c r="AO50" s="7"/>
-      <c r="AP50" s="7"/>
-      <c r="AQ50" s="7"/>
-      <c r="AR50" s="7"/>
-      <c r="AS50" s="7"/>
-      <c r="AT50" s="7"/>
-      <c r="AU50" s="7"/>
-      <c r="AV50" s="7"/>
-      <c r="AW50" s="7">
-        <v>1</v>
-      </c>
-      <c r="AX50" s="10">
-        <v>1</v>
-      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="12"/>
+      <c r="AM49" s="12"/>
+      <c r="AN49" s="12"/>
+      <c r="AO49" s="12"/>
+      <c r="AP49" s="12"/>
+      <c r="AQ49" s="12"/>
+      <c r="AR49" s="12"/>
+      <c r="AS49" s="12"/>
+      <c r="AT49" s="12"/>
+      <c r="AU49" s="12"/>
+      <c r="AV49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AW49" s="13"/>
+      <c r="AX49" s="3"/>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3"/>
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="3"/>
+      <c r="AM50" s="3"/>
+      <c r="AN50" s="3"/>
+      <c r="AO50" s="3"/>
+      <c r="AP50" s="3"/>
+      <c r="AQ50" s="3"/>
+      <c r="AR50" s="3"/>
+      <c r="AS50" s="3"/>
+      <c r="AT50" s="3"/>
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="3"/>
+      <c r="AW50" s="3"/>
+      <c r="AX50" s="3"/>
+    </row>
+    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="2"/>
+      <c r="AO51" s="2"/>
+      <c r="AP51" s="2"/>
+      <c r="AQ51" s="2"/>
+      <c r="AR51" s="2"/>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="2"/>
+      <c r="AU51" s="2"/>
+      <c r="AV51" s="2"/>
+      <c r="AW51" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Matrice projetfinis.xlsx
+++ b/Matrice projetfinis.xlsx
@@ -180,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +191,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -216,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -276,29 +282,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -309,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -325,9 +309,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,23 +627,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX51"/>
+  <dimension ref="A1:AY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AX50" sqref="A1:AX50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="35" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.44140625" customWidth="1"/>
-    <col min="37" max="49" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.44140625" customWidth="1"/>
+    <col min="13" max="36" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.44140625" customWidth="1"/>
+    <col min="38" max="49" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3.44140625" customWidth="1"/>
+    <col min="51" max="51" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>2</v>
@@ -804,8 +792,11 @@
       <c r="AW1" s="9">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AX1" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -858,9 +849,10 @@
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
-      <c r="AW2" s="10"/>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="5"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -915,9 +907,10 @@
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
-      <c r="AW3" s="5"/>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="5"/>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
@@ -972,9 +965,10 @@
       <c r="AT4" s="2"/>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
-      <c r="AW4" s="5"/>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="5"/>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1031,9 +1025,10 @@
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
-      <c r="AW5" s="5"/>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="5"/>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -1086,9 +1081,10 @@
       <c r="AT6" s="2"/>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
-      <c r="AW6" s="5"/>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="5"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
@@ -1143,9 +1139,10 @@
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
-      <c r="AW7" s="5"/>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="5"/>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
@@ -1198,9 +1195,10 @@
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
-      <c r="AW8" s="5"/>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="5"/>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -1255,9 +1253,10 @@
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
-      <c r="AW9" s="5"/>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="5"/>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1312,9 +1311,10 @@
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
-      <c r="AW10" s="5"/>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="5"/>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="K11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1369,12 +1369,11 @@
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
-      <c r="AW11" s="5"/>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="5"/>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1387,10 +1386,10 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="12"/>
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -1426,11 +1425,12 @@
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
-      <c r="AW12" s="5"/>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="5"/>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1443,10 +1443,10 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="12"/>
+      <c r="N13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1481,11 +1481,12 @@
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
-      <c r="AW13" s="5"/>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="5"/>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1498,13 +1499,13 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="M14" s="2"/>
+      <c r="N14" s="12">
+        <v>1</v>
+      </c>
+      <c r="O14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1538,11 +1539,12 @@
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
-      <c r="AW14" s="5"/>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="5"/>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1555,12 +1557,12 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="13"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1593,11 +1595,12 @@
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
-      <c r="AW15" s="5"/>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="5"/>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1611,10 +1614,12 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="3"/>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
       <c r="O16" s="3"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="2"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="13"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -1646,11 +1651,12 @@
       <c r="AT16" s="2"/>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
-      <c r="AW16" s="5"/>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="5"/>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1664,15 +1670,15 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="3"/>
+      <c r="N17" s="2"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="1" t="s">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="12">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1703,11 +1709,12 @@
       <c r="AT17" s="2"/>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
-      <c r="AW17" s="5"/>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="5"/>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1723,14 +1730,14 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="1" t="s">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2">
+        <v>1</v>
+      </c>
+      <c r="R18" s="12"/>
+      <c r="S18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -1760,11 +1767,12 @@
       <c r="AT18" s="2"/>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
-      <c r="AW18" s="5"/>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="5"/>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1781,12 +1789,14 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
+      <c r="Q19" s="2">
+        <v>1</v>
+      </c>
       <c r="R19" s="2"/>
-      <c r="S19" s="1" t="s">
+      <c r="S19" s="12"/>
+      <c r="T19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -1815,11 +1825,12 @@
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
-      <c r="AW19" s="5"/>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="5"/>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1838,13 +1849,13 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2">
-        <v>1</v>
-      </c>
-      <c r="T20" s="1" t="s">
+      <c r="S20" s="2"/>
+      <c r="T20" s="12">
+        <v>1</v>
+      </c>
+      <c r="U20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -1872,11 +1883,12 @@
       <c r="AT20" s="2"/>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
-      <c r="AW20" s="5"/>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="5"/>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1895,16 +1907,16 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="2">
-        <v>1</v>
-      </c>
+      <c r="S21" s="2"/>
       <c r="T21" s="2">
         <v>1</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" s="12">
+        <v>1</v>
+      </c>
+      <c r="V21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
@@ -1931,11 +1943,12 @@
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
-      <c r="AW21" s="5"/>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="5"/>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1954,17 +1967,17 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="2">
-        <v>1</v>
-      </c>
+      <c r="S22" s="2"/>
       <c r="T22" s="2">
         <v>1</v>
       </c>
-      <c r="U22" s="2"/>
-      <c r="V22" s="1" t="s">
+      <c r="U22" s="2">
+        <v>1</v>
+      </c>
+      <c r="V22" s="12"/>
+      <c r="W22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
@@ -1990,11 +2003,12 @@
       <c r="AT22" s="2"/>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
-      <c r="AW22" s="5"/>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="5"/>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2014,13 +2028,17 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
+      <c r="T23" s="3">
+        <v>1</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1</v>
+      </c>
       <c r="V23" s="2"/>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="12"/>
+      <c r="X23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
@@ -2045,11 +2063,12 @@
       <c r="AT23" s="2"/>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
-      <c r="AW23" s="5"/>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="5"/>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2072,13 +2091,13 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="2">
-        <v>1</v>
-      </c>
-      <c r="X24" s="1" t="s">
+      <c r="W24" s="2"/>
+      <c r="X24" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -2102,11 +2121,12 @@
       <c r="AT24" s="2"/>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
-      <c r="AW24" s="5"/>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="5"/>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2129,14 +2149,14 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="2">
-        <v>1</v>
-      </c>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="1" t="s">
+      <c r="W25" s="2"/>
+      <c r="X25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
@@ -2159,11 +2179,12 @@
       <c r="AT25" s="2"/>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
-      <c r="AW25" s="5"/>
-    </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="5"/>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2186,15 +2207,15 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="2">
-        <v>1</v>
-      </c>
-      <c r="X26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2">
+        <v>1</v>
+      </c>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="1" t="s">
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
@@ -2216,11 +2237,12 @@
       <c r="AT26" s="2"/>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
-      <c r="AW26" s="5"/>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="5"/>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2243,16 +2265,16 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="3">
-        <v>1</v>
-      </c>
-      <c r="X27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="3">
+        <v>1</v>
+      </c>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="1" t="s">
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
@@ -2273,11 +2295,12 @@
       <c r="AT27" s="2"/>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
-      <c r="AW27" s="5"/>
-    </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="5"/>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2300,16 +2323,18 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="3">
+        <v>1</v>
+      </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="1"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="12"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
-      <c r="AF28" s="2"/>
+      <c r="AF28" s="3"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
@@ -2326,11 +2351,12 @@
       <c r="AT28" s="2"/>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
-      <c r="AW28" s="5"/>
-    </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="5"/>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2357,15 +2383,15 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="1"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="12">
+        <v>1</v>
+      </c>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="2"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
@@ -2381,12 +2407,13 @@
       <c r="AT29" s="3"/>
       <c r="AU29" s="3"/>
       <c r="AV29" s="3"/>
-      <c r="AW29" s="6"/>
-      <c r="AX29" s="3"/>
-    </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="6"/>
+      <c r="AY29" s="3"/>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2413,15 +2440,15 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="3"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="2"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
@@ -2437,12 +2464,13 @@
       <c r="AT30" s="3"/>
       <c r="AU30" s="3"/>
       <c r="AV30" s="3"/>
-      <c r="AW30" s="6"/>
-      <c r="AX30" s="3"/>
-    </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="6"/>
+      <c r="AY30" s="3"/>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2469,15 +2497,15 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="3"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3">
+        <v>1</v>
+      </c>
       <c r="AD31" s="3"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="3"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="2"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
@@ -2493,12 +2521,13 @@
       <c r="AT31" s="3"/>
       <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
-      <c r="AW31" s="6"/>
-      <c r="AX31" s="3"/>
-    </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="6"/>
+      <c r="AY31" s="3"/>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2525,9 +2554,11 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="3"/>
+      <c r="AA32" s="2"/>
       <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
+      <c r="AC32" s="3">
+        <v>1</v>
+      </c>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="1"/>
@@ -2547,12 +2578,13 @@
       <c r="AT32" s="3"/>
       <c r="AU32" s="3"/>
       <c r="AV32" s="3"/>
-      <c r="AW32" s="6"/>
-      <c r="AX32" s="3"/>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="6"/>
+      <c r="AY32" s="3"/>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2579,15 +2611,15 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="3"/>
+      <c r="AA33" s="2"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
-      <c r="AF33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG33" s="1"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="1">
+        <v>1</v>
+      </c>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
@@ -2603,12 +2635,13 @@
       <c r="AT33" s="3"/>
       <c r="AU33" s="3"/>
       <c r="AV33" s="3"/>
-      <c r="AW33" s="6"/>
-      <c r="AX33" s="3"/>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="6"/>
+      <c r="AY33" s="3"/>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2635,15 +2668,15 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="3"/>
+      <c r="AA34" s="2"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
-      <c r="AF34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3">
+        <v>1</v>
+      </c>
       <c r="AH34" s="1"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
@@ -2659,12 +2692,13 @@
       <c r="AT34" s="3"/>
       <c r="AU34" s="3"/>
       <c r="AV34" s="3"/>
-      <c r="AW34" s="6"/>
-      <c r="AX34" s="3"/>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="6"/>
+      <c r="AY34" s="3"/>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2696,14 +2730,14 @@
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
-      <c r="AF35" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="1"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="1">
+        <v>1</v>
+      </c>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
@@ -2717,12 +2751,13 @@
       <c r="AT35" s="3"/>
       <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
-      <c r="AW35" s="6"/>
-      <c r="AX35" s="3"/>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="6"/>
+      <c r="AY35" s="3"/>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2755,9 +2790,13 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="3"/>
+      <c r="AG36" s="3">
+        <v>1</v>
+      </c>
       <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
+      <c r="AI36" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
@@ -2771,12 +2810,13 @@
       <c r="AT36" s="3"/>
       <c r="AU36" s="3"/>
       <c r="AV36" s="3"/>
-      <c r="AW36" s="6"/>
-      <c r="AX36" s="3"/>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="6"/>
+      <c r="AY36" s="3"/>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2809,13 +2849,13 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
-      <c r="AG37" s="3"/>
+      <c r="AG37" s="2"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
-      <c r="AJ37" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK37" s="1"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="1">
+        <v>1</v>
+      </c>
       <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
@@ -2827,12 +2867,13 @@
       <c r="AT37" s="3"/>
       <c r="AU37" s="3"/>
       <c r="AV37" s="3"/>
-      <c r="AW37" s="6"/>
-      <c r="AX37" s="3"/>
-    </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="6"/>
+      <c r="AY37" s="3"/>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2865,13 +2906,13 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
-      <c r="AG38" s="3"/>
+      <c r="AG38" s="2"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
-      <c r="AJ38" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3">
+        <v>1</v>
+      </c>
       <c r="AL38" s="1"/>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
@@ -2883,12 +2924,13 @@
       <c r="AT38" s="3"/>
       <c r="AU38" s="3"/>
       <c r="AV38" s="3"/>
-      <c r="AW38" s="6"/>
-      <c r="AX38" s="3"/>
-    </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>21</v>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="6"/>
+      <c r="AY38" s="3"/>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2921,11 +2963,13 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
-      <c r="AG39" s="3"/>
+      <c r="AG39" s="2"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
+      <c r="AK39" s="3">
+        <v>1</v>
+      </c>
       <c r="AL39" s="3"/>
       <c r="AM39" s="1"/>
       <c r="AN39" s="3"/>
@@ -2937,12 +2981,13 @@
       <c r="AT39" s="3"/>
       <c r="AU39" s="3"/>
       <c r="AV39" s="3"/>
-      <c r="AW39" s="6"/>
-      <c r="AX39" s="3"/>
-    </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="6"/>
+      <c r="AY39" s="3"/>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2975,16 +3020,16 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
-      <c r="AG40" s="3"/>
+      <c r="AG40" s="2"/>
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
-      <c r="AM40" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN40" s="1"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="1">
+        <v>1</v>
+      </c>
       <c r="AO40" s="3"/>
       <c r="AP40" s="3"/>
       <c r="AQ40" s="3"/>
@@ -2993,12 +3038,13 @@
       <c r="AT40" s="3"/>
       <c r="AU40" s="3"/>
       <c r="AV40" s="3"/>
-      <c r="AW40" s="6"/>
-      <c r="AX40" s="3"/>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="6"/>
+      <c r="AY40" s="3"/>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3031,19 +3077,19 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
-      <c r="AG41" s="3"/>
+      <c r="AG41" s="2"/>
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
-      <c r="AM41" s="3">
-        <v>1</v>
-      </c>
+      <c r="AM41" s="3"/>
       <c r="AN41" s="3">
         <v>1</v>
       </c>
-      <c r="AO41" s="1"/>
+      <c r="AO41" s="1">
+        <v>1</v>
+      </c>
       <c r="AP41" s="3"/>
       <c r="AQ41" s="3"/>
       <c r="AR41" s="3"/>
@@ -3051,12 +3097,13 @@
       <c r="AT41" s="3"/>
       <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
-      <c r="AW41" s="6"/>
-      <c r="AX41" s="3"/>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="6"/>
+      <c r="AY41" s="3"/>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3089,15 +3136,19 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
-      <c r="AG42" s="3"/>
+      <c r="AG42" s="2"/>
       <c r="AH42" s="3"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
       <c r="AM42" s="3"/>
-      <c r="AN42" s="3"/>
-      <c r="AO42" s="3"/>
+      <c r="AN42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="3">
+        <v>1</v>
+      </c>
       <c r="AP42" s="1"/>
       <c r="AQ42" s="3"/>
       <c r="AR42" s="3"/>
@@ -3105,12 +3156,13 @@
       <c r="AT42" s="3"/>
       <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
-      <c r="AW42" s="6"/>
-      <c r="AX42" s="3"/>
-    </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW42" s="3"/>
+      <c r="AX42" s="6"/>
+      <c r="AY42" s="3"/>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3143,7 +3195,7 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
-      <c r="AG43" s="3"/>
+      <c r="AG43" s="2"/>
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
@@ -3152,21 +3204,22 @@
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
-      <c r="AP43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ43" s="1"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="1">
+        <v>1</v>
+      </c>
       <c r="AR43" s="3"/>
       <c r="AS43" s="3"/>
       <c r="AT43" s="3"/>
       <c r="AU43" s="3"/>
       <c r="AV43" s="3"/>
-      <c r="AW43" s="6"/>
-      <c r="AX43" s="3"/>
-    </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW43" s="3"/>
+      <c r="AX43" s="6"/>
+      <c r="AY43" s="3"/>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3199,7 +3252,7 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
-      <c r="AG44" s="3"/>
+      <c r="AG44" s="2"/>
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
@@ -3208,21 +3261,22 @@
       <c r="AM44" s="3"/>
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
-      <c r="AP44" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ44" s="3"/>
+      <c r="AP44" s="3"/>
+      <c r="AQ44" s="3">
+        <v>1</v>
+      </c>
       <c r="AR44" s="1"/>
       <c r="AS44" s="3"/>
       <c r="AT44" s="3"/>
       <c r="AU44" s="3"/>
       <c r="AV44" s="3"/>
-      <c r="AW44" s="6"/>
-      <c r="AX44" s="3"/>
-    </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW44" s="3"/>
+      <c r="AX44" s="6"/>
+      <c r="AY44" s="3"/>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3255,7 +3309,7 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
-      <c r="AG45" s="3"/>
+      <c r="AG45" s="2"/>
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
@@ -3264,21 +3318,22 @@
       <c r="AM45" s="3"/>
       <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
-      <c r="AP45" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ45" s="3"/>
+      <c r="AP45" s="3"/>
+      <c r="AQ45" s="3">
+        <v>1</v>
+      </c>
       <c r="AR45" s="3"/>
       <c r="AS45" s="1"/>
       <c r="AT45" s="3"/>
       <c r="AU45" s="3"/>
       <c r="AV45" s="3"/>
-      <c r="AW45" s="6"/>
-      <c r="AX45" s="3"/>
-    </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW45" s="3"/>
+      <c r="AX45" s="6"/>
+      <c r="AY45" s="3"/>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3311,7 +3366,7 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
-      <c r="AG46" s="3"/>
+      <c r="AG46" s="2"/>
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
@@ -3320,21 +3375,22 @@
       <c r="AM46" s="3"/>
       <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
-      <c r="AP46" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ46" s="3"/>
+      <c r="AP46" s="3"/>
+      <c r="AQ46" s="3">
+        <v>1</v>
+      </c>
       <c r="AR46" s="3"/>
       <c r="AS46" s="3"/>
       <c r="AT46" s="1"/>
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
-      <c r="AW46" s="6"/>
-      <c r="AX46" s="3"/>
-    </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW46" s="3"/>
+      <c r="AX46" s="6"/>
+      <c r="AY46" s="3"/>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3367,7 +3423,7 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
-      <c r="AG47" s="3"/>
+      <c r="AG47" s="2"/>
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
@@ -3376,21 +3432,22 @@
       <c r="AM47" s="3"/>
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
-      <c r="AP47" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ47" s="3"/>
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="3">
+        <v>1</v>
+      </c>
       <c r="AR47" s="3"/>
       <c r="AS47" s="3"/>
       <c r="AT47" s="3"/>
       <c r="AU47" s="1"/>
       <c r="AV47" s="3"/>
-      <c r="AW47" s="6"/>
-      <c r="AX47" s="3"/>
-    </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW47" s="3"/>
+      <c r="AX47" s="6"/>
+      <c r="AY47" s="3"/>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3423,7 +3480,7 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
-      <c r="AG48" s="3"/>
+      <c r="AG48" s="2"/>
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
@@ -3433,123 +3490,131 @@
       <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
       <c r="AP48" s="3"/>
-      <c r="AQ48" s="3"/>
+      <c r="AQ48" s="3">
+        <v>1</v>
+      </c>
       <c r="AR48" s="3"/>
       <c r="AS48" s="3"/>
       <c r="AT48" s="3"/>
       <c r="AU48" s="3"/>
       <c r="AV48" s="1"/>
-      <c r="AW48" s="6"/>
-      <c r="AX48" s="3"/>
-    </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AW48" s="3"/>
+      <c r="AX48" s="6"/>
+      <c r="AY48" s="3"/>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="3"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="3"/>
+      <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="6"/>
+      <c r="AY49" s="3"/>
+    </row>
+    <row r="50" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="11"/>
-      <c r="AB49" s="11"/>
-      <c r="AC49" s="11"/>
-      <c r="AD49" s="11"/>
-      <c r="AE49" s="11"/>
-      <c r="AF49" s="11"/>
-      <c r="AG49" s="12"/>
-      <c r="AH49" s="12"/>
-      <c r="AI49" s="12"/>
-      <c r="AJ49" s="12"/>
-      <c r="AK49" s="12"/>
-      <c r="AL49" s="12"/>
-      <c r="AM49" s="12"/>
-      <c r="AN49" s="12"/>
-      <c r="AO49" s="12"/>
-      <c r="AP49" s="12"/>
-      <c r="AQ49" s="12"/>
-      <c r="AR49" s="12"/>
-      <c r="AS49" s="12"/>
-      <c r="AT49" s="12"/>
-      <c r="AU49" s="12"/>
-      <c r="AV49" s="12">
-        <v>1</v>
-      </c>
-      <c r="AW49" s="13"/>
-      <c r="AX49" s="3"/>
-    </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
-      <c r="AF50" s="2"/>
-      <c r="AG50" s="3"/>
-      <c r="AH50" s="3"/>
-      <c r="AI50" s="3"/>
-      <c r="AJ50" s="3"/>
-      <c r="AK50" s="3"/>
-      <c r="AL50" s="3"/>
-      <c r="AM50" s="3"/>
-      <c r="AN50" s="3"/>
-      <c r="AO50" s="3"/>
-      <c r="AP50" s="3"/>
-      <c r="AQ50" s="3"/>
-      <c r="AR50" s="3"/>
-      <c r="AS50" s="3"/>
-      <c r="AT50" s="3"/>
-      <c r="AU50" s="3"/>
-      <c r="AV50" s="3"/>
-      <c r="AW50" s="3"/>
-      <c r="AX50" s="3"/>
-    </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="11"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="11"/>
+      <c r="AP50" s="11"/>
+      <c r="AQ50" s="11"/>
+      <c r="AR50" s="11"/>
+      <c r="AS50" s="11"/>
+      <c r="AT50" s="11"/>
+      <c r="AU50" s="11"/>
+      <c r="AV50" s="11"/>
+      <c r="AW50" s="11">
+        <v>1</v>
+      </c>
+      <c r="AX50" s="14"/>
+      <c r="AY50" s="3"/>
+    </row>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -3598,6 +3663,7 @@
       <c r="AU51" s="2"/>
       <c r="AV51" s="2"/>
       <c r="AW51" s="2"/>
+      <c r="AX51" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Matrice projetfinis.xlsx
+++ b/Matrice projetfinis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>ID_potion</t>
   </si>
@@ -101,9 +101,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>Quantite_potion</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>prix_onguent</t>
+  </si>
+  <si>
+    <t>Quantité_stock</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:AY51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AX50" sqref="A1:AX50"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,7 +912,7 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1373,7 +1373,9 @@
       <c r="AX11" s="5"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1387,9 +1389,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="M12" s="3"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1444,9 +1444,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="N13" s="3"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1503,9 +1501,7 @@
       <c r="N14" s="12">
         <v>1</v>
       </c>
-      <c r="O14" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="O14" s="13"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1544,7 +1540,7 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1600,7 +1596,7 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1656,7 +1652,7 @@
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1676,9 +1672,7 @@
       <c r="Q17" s="12">
         <v>1</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="R17" s="3"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1735,9 +1729,7 @@
         <v>1</v>
       </c>
       <c r="R18" s="12"/>
-      <c r="S18" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="S18" s="3"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -1794,9 +1786,7 @@
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="T19" s="3"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -1853,9 +1843,7 @@
       <c r="T20" s="12">
         <v>1</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="U20" s="3"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -1914,9 +1902,7 @@
       <c r="U21" s="12">
         <v>1</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="V21" s="3"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
@@ -1975,9 +1961,7 @@
         <v>1</v>
       </c>
       <c r="V22" s="12"/>
-      <c r="W22" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="W22" s="3"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
@@ -2008,7 +1992,7 @@
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2036,9 +2020,7 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="12"/>
-      <c r="X23" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="X23" s="3"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
@@ -2068,7 +2050,7 @@
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2095,9 +2077,7 @@
       <c r="X24" s="12">
         <v>1</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="Y24" s="3"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -2154,9 +2134,7 @@
         <v>1</v>
       </c>
       <c r="Y25" s="12"/>
-      <c r="Z25" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="Z25" s="3"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
@@ -2213,9 +2191,7 @@
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" s="12"/>
-      <c r="AA26" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="AA26" s="3"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
@@ -2242,7 +2218,7 @@
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2272,9 +2248,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="12"/>
-      <c r="AB27" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="AB27" s="3"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
@@ -2300,7 +2274,7 @@
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2698,7 +2672,7 @@
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2757,7 +2731,7 @@
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3103,7 +3077,7 @@
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3162,7 +3136,7 @@
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3219,7 +3193,7 @@
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3276,7 +3250,7 @@
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3333,7 +3307,7 @@
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3390,7 +3364,7 @@
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3447,7 +3421,7 @@
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3504,7 +3478,7 @@
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3559,7 +3533,7 @@
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>

--- a/Matrice projetfinis.xlsx
+++ b/Matrice projetfinis.xlsx
@@ -173,7 +173,7 @@
     <t>prix_onguent</t>
   </si>
   <si>
-    <t>Quantité_stock</t>
+    <t>Quantite_stock</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:AY51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Matrice projetfinis.xlsx
+++ b/Matrice projetfinis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>ID_potion</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Quantite_stock</t>
+  </si>
+  <si>
+    <t>Recette</t>
   </si>
 </sst>
 </file>
@@ -627,26 +630,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY51"/>
+  <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.44140625" customWidth="1"/>
-    <col min="13" max="36" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.44140625" customWidth="1"/>
-    <col min="38" max="49" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="3.44140625" customWidth="1"/>
-    <col min="51" max="51" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="2.33203125" customWidth="1"/>
+    <col min="7" max="9" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.44140625" customWidth="1"/>
+    <col min="14" max="37" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.44140625" customWidth="1"/>
+    <col min="39" max="50" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.44140625" customWidth="1"/>
+    <col min="52" max="52" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>2</v>
@@ -795,8 +798,11 @@
       <c r="AX1" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AY1" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -850,9 +856,10 @@
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
-      <c r="AX2" s="5"/>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="5"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -908,9 +915,10 @@
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
-      <c r="AX3" s="5"/>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="5"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -966,9 +974,10 @@
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
-      <c r="AX4" s="5"/>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="5"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -982,7 +991,7 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1026,19 +1035,20 @@
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
-      <c r="AX5" s="5"/>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="5"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1082,21 +1092,20 @@
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
-      <c r="AX6" s="5"/>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="5"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1">
+        <v>1</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1140,18 +1149,21 @@
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
-      <c r="AX7" s="5"/>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="5"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1196,11 +1208,12 @@
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
-      <c r="AX8" s="5"/>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="5"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1208,9 +1221,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,11 +1265,12 @@
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
-      <c r="AX9" s="5"/>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="5"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1266,10 +1278,10 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1312,11 +1324,12 @@
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
-      <c r="AX10" s="5"/>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="5"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1324,15 +1337,15 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="13"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1370,11 +1383,12 @@
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
-      <c r="AX11" s="5"/>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="5"/>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1382,14 +1396,16 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="13"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -1426,11 +1442,12 @@
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
-      <c r="AX12" s="5"/>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="5"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1439,7 +1456,9 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1480,11 +1499,12 @@
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
-      <c r="AX13" s="5"/>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="5"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1498,10 +1518,8 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="12">
-        <v>1</v>
-      </c>
-      <c r="O14" s="13"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1536,11 +1554,12 @@
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
-      <c r="AX14" s="5"/>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="5"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1554,10 +1573,10 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="12"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="12">
+        <v>1</v>
+      </c>
       <c r="P15" s="13"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1592,11 +1611,12 @@
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
-      <c r="AX15" s="5"/>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="5"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1610,10 +1630,10 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
       <c r="P16" s="12"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="2"/>
@@ -1648,11 +1668,12 @@
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
-      <c r="AX16" s="5"/>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="5"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1667,12 +1688,12 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="3"/>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
       <c r="P17" s="3"/>
-      <c r="Q17" s="12">
-        <v>1</v>
-      </c>
-      <c r="R17" s="3"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="13"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1704,11 +1725,12 @@
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
-      <c r="AX17" s="5"/>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="5"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1724,11 +1746,11 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2">
-        <v>1</v>
-      </c>
-      <c r="R18" s="12"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="12">
+        <v>1</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -1760,11 +1782,12 @@
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
-      <c r="AX18" s="5"/>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="5"/>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1781,10 +1804,10 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2">
+        <v>1</v>
+      </c>
       <c r="S19" s="12"/>
       <c r="T19" s="3"/>
       <c r="U19" s="2"/>
@@ -1816,11 +1839,12 @@
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
-      <c r="AX19" s="5"/>
-    </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="5"/>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1838,11 +1862,11 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
       <c r="S20" s="2"/>
-      <c r="T20" s="12">
-        <v>1</v>
-      </c>
+      <c r="T20" s="12"/>
       <c r="U20" s="3"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -1872,11 +1896,12 @@
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
-      <c r="AX20" s="5"/>
-    </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="5"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1896,9 +1921,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="2">
-        <v>1</v>
-      </c>
+      <c r="T21" s="2"/>
       <c r="U21" s="12">
         <v>1</v>
       </c>
@@ -1930,11 +1953,12 @@
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
-      <c r="AX21" s="5"/>
-    </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="5"/>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1954,13 +1978,13 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="2">
-        <v>1</v>
-      </c>
+      <c r="T22" s="2"/>
       <c r="U22" s="2">
         <v>1</v>
       </c>
-      <c r="V22" s="12"/>
+      <c r="V22" s="12">
+        <v>1</v>
+      </c>
       <c r="W22" s="3"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
@@ -1988,11 +2012,12 @@
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
-      <c r="AX22" s="5"/>
-    </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="5"/>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2012,13 +2037,13 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="3">
-        <v>1</v>
-      </c>
+      <c r="T23" s="2"/>
       <c r="U23" s="2">
         <v>1</v>
       </c>
-      <c r="V23" s="2"/>
+      <c r="V23" s="2">
+        <v>1</v>
+      </c>
       <c r="W23" s="12"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="2"/>
@@ -2046,11 +2071,12 @@
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
-      <c r="AX23" s="5"/>
-    </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="5"/>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2071,12 +2097,14 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
+      <c r="U24" s="3">
+        <v>1</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1</v>
+      </c>
       <c r="W24" s="2"/>
-      <c r="X24" s="12">
-        <v>1</v>
-      </c>
+      <c r="X24" s="12"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
@@ -2102,11 +2130,12 @@
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
-      <c r="AX24" s="5"/>
-    </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="5"/>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2130,10 +2159,10 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
-      <c r="X25" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="12"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="12">
+        <v>1</v>
+      </c>
       <c r="Z25" s="3"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
@@ -2158,11 +2187,12 @@
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
-      <c r="AX25" s="5"/>
-    </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="5"/>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2186,10 +2216,10 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
-      <c r="X26" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
       <c r="Z26" s="12"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="2"/>
@@ -2214,11 +2244,12 @@
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
-      <c r="AX26" s="5"/>
-    </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="5"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2242,10 +2273,10 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2">
+        <v>1</v>
+      </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="3"/>
@@ -2270,11 +2301,12 @@
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
-      <c r="AX27" s="5"/>
-    </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="5"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2298,17 +2330,17 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
-      <c r="X28" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="3">
+        <v>1</v>
+      </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
@@ -2326,11 +2358,12 @@
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
-      <c r="AX28" s="5"/>
-    </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="5"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2355,39 +2388,39 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
+      <c r="Y29" s="3">
+        <v>1</v>
+      </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="12">
-        <v>1</v>
-      </c>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="12"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="6"/>
-      <c r="AY29" s="3"/>
-    </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="5"/>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2415,15 +2448,15 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="13"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="2"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
@@ -2439,12 +2472,13 @@
       <c r="AU30" s="3"/>
       <c r="AV30" s="3"/>
       <c r="AW30" s="3"/>
-      <c r="AX30" s="6"/>
-      <c r="AY30" s="3"/>
-    </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="6"/>
+      <c r="AZ30" s="3"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2472,15 +2506,15 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="3"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3">
+        <v>1</v>
+      </c>
       <c r="AE31" s="12"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="3"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="2"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
@@ -2496,12 +2530,13 @@
       <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
       <c r="AW31" s="3"/>
-      <c r="AX31" s="6"/>
-      <c r="AY31" s="3"/>
-    </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="6"/>
+      <c r="AZ31" s="3"/>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2529,15 +2564,15 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD32" s="3"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3">
+        <v>1</v>
+      </c>
       <c r="AE32" s="3"/>
-      <c r="AF32" s="1"/>
+      <c r="AF32" s="12"/>
       <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
+      <c r="AH32" s="2"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
@@ -2553,12 +2588,13 @@
       <c r="AU32" s="3"/>
       <c r="AV32" s="3"/>
       <c r="AW32" s="3"/>
-      <c r="AX32" s="6"/>
-      <c r="AY32" s="3"/>
-    </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="6"/>
+      <c r="AZ32" s="3"/>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2586,14 +2622,14 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
-      <c r="AB33" s="3"/>
+      <c r="AB33" s="2"/>
       <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
+      <c r="AD33" s="3">
+        <v>1</v>
+      </c>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
-      <c r="AG33" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG33" s="1"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
@@ -2610,12 +2646,13 @@
       <c r="AU33" s="3"/>
       <c r="AV33" s="3"/>
       <c r="AW33" s="3"/>
-      <c r="AX33" s="6"/>
-      <c r="AY33" s="3"/>
-    </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="6"/>
+      <c r="AZ33" s="3"/>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2643,15 +2680,15 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="3"/>
+      <c r="AB34" s="2"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
-      <c r="AG34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="1"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="1">
+        <v>1</v>
+      </c>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
@@ -2667,12 +2704,13 @@
       <c r="AU34" s="3"/>
       <c r="AV34" s="3"/>
       <c r="AW34" s="3"/>
-      <c r="AX34" s="6"/>
-      <c r="AY34" s="3"/>
-    </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="6"/>
+      <c r="AZ34" s="3"/>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2701,17 +2739,15 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="1">
-        <v>1</v>
-      </c>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="1"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
@@ -2726,12 +2762,13 @@
       <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
       <c r="AW35" s="3"/>
-      <c r="AX35" s="6"/>
-      <c r="AY35" s="3"/>
-    </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="6"/>
+      <c r="AZ35" s="3"/>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2764,14 +2801,14 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ36" s="1"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="1">
+        <v>1</v>
+      </c>
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
       <c r="AM36" s="3"/>
@@ -2785,12 +2822,13 @@
       <c r="AU36" s="3"/>
       <c r="AV36" s="3"/>
       <c r="AW36" s="3"/>
-      <c r="AX36" s="6"/>
-      <c r="AY36" s="3"/>
-    </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="6"/>
+      <c r="AZ36" s="3"/>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2824,12 +2862,14 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
-      <c r="AH37" s="3"/>
+      <c r="AH37" s="3">
+        <v>1</v>
+      </c>
       <c r="AI37" s="3"/>
-      <c r="AJ37" s="3"/>
-      <c r="AK37" s="1">
-        <v>1</v>
-      </c>
+      <c r="AJ37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="1"/>
       <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
@@ -2842,12 +2882,13 @@
       <c r="AU37" s="3"/>
       <c r="AV37" s="3"/>
       <c r="AW37" s="3"/>
-      <c r="AX37" s="6"/>
-      <c r="AY37" s="3"/>
-    </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="6"/>
+      <c r="AZ37" s="3"/>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2881,13 +2922,13 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
-      <c r="AH38" s="3"/>
+      <c r="AH38" s="2"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
-      <c r="AK38" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL38" s="1"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="1">
+        <v>1</v>
+      </c>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
@@ -2899,12 +2940,13 @@
       <c r="AU38" s="3"/>
       <c r="AV38" s="3"/>
       <c r="AW38" s="3"/>
-      <c r="AX38" s="6"/>
-      <c r="AY38" s="3"/>
-    </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="6"/>
+      <c r="AZ38" s="3"/>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2938,13 +2980,13 @@
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="3"/>
+      <c r="AH39" s="2"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
-      <c r="AK39" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3">
+        <v>1</v>
+      </c>
       <c r="AM39" s="1"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
@@ -2956,12 +2998,13 @@
       <c r="AU39" s="3"/>
       <c r="AV39" s="3"/>
       <c r="AW39" s="3"/>
-      <c r="AX39" s="6"/>
-      <c r="AY39" s="3"/>
-    </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>21</v>
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="6"/>
+      <c r="AZ39" s="3"/>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2995,15 +3038,15 @@
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
-      <c r="AH40" s="3"/>
+      <c r="AH40" s="2"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
-      <c r="AL40" s="3"/>
+      <c r="AL40" s="3">
+        <v>1</v>
+      </c>
       <c r="AM40" s="3"/>
-      <c r="AN40" s="1">
-        <v>1</v>
-      </c>
+      <c r="AN40" s="1"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="3"/>
       <c r="AQ40" s="3"/>
@@ -3013,12 +3056,13 @@
       <c r="AU40" s="3"/>
       <c r="AV40" s="3"/>
       <c r="AW40" s="3"/>
-      <c r="AX40" s="6"/>
-      <c r="AY40" s="3"/>
-    </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="6"/>
+      <c r="AZ40" s="3"/>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3052,15 +3096,13 @@
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="3"/>
+      <c r="AH41" s="2"/>
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
       <c r="AM41" s="3"/>
-      <c r="AN41" s="3">
-        <v>1</v>
-      </c>
+      <c r="AN41" s="3"/>
       <c r="AO41" s="1">
         <v>1</v>
       </c>
@@ -3072,12 +3114,13 @@
       <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
       <c r="AW41" s="3"/>
-      <c r="AX41" s="6"/>
-      <c r="AY41" s="3"/>
-    </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="6"/>
+      <c r="AZ41" s="3"/>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3111,19 +3154,19 @@
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="3"/>
+      <c r="AH42" s="2"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
       <c r="AM42" s="3"/>
-      <c r="AN42" s="3">
-        <v>1</v>
-      </c>
+      <c r="AN42" s="3"/>
       <c r="AO42" s="3">
         <v>1</v>
       </c>
-      <c r="AP42" s="1"/>
+      <c r="AP42" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ42" s="3"/>
       <c r="AR42" s="3"/>
       <c r="AS42" s="3"/>
@@ -3131,12 +3174,13 @@
       <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
       <c r="AW42" s="3"/>
-      <c r="AX42" s="6"/>
-      <c r="AY42" s="3"/>
-    </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX42" s="3"/>
+      <c r="AY42" s="6"/>
+      <c r="AZ42" s="3"/>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3170,30 +3214,33 @@
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="3"/>
+      <c r="AH43" s="2"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
-      <c r="AO43" s="3"/>
-      <c r="AP43" s="3"/>
-      <c r="AQ43" s="1">
-        <v>1</v>
-      </c>
+      <c r="AO43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="1"/>
       <c r="AR43" s="3"/>
       <c r="AS43" s="3"/>
       <c r="AT43" s="3"/>
       <c r="AU43" s="3"/>
       <c r="AV43" s="3"/>
       <c r="AW43" s="3"/>
-      <c r="AX43" s="6"/>
-      <c r="AY43" s="3"/>
-    </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX43" s="3"/>
+      <c r="AY43" s="6"/>
+      <c r="AZ43" s="3"/>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3227,7 +3274,7 @@
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="3"/>
+      <c r="AH44" s="2"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
@@ -3236,21 +3283,22 @@
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
       <c r="AP44" s="3"/>
-      <c r="AQ44" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR44" s="1"/>
+      <c r="AQ44" s="3"/>
+      <c r="AR44" s="1">
+        <v>1</v>
+      </c>
       <c r="AS44" s="3"/>
       <c r="AT44" s="3"/>
       <c r="AU44" s="3"/>
       <c r="AV44" s="3"/>
       <c r="AW44" s="3"/>
-      <c r="AX44" s="6"/>
-      <c r="AY44" s="3"/>
-    </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX44" s="3"/>
+      <c r="AY44" s="6"/>
+      <c r="AZ44" s="3"/>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3284,7 +3332,7 @@
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="3"/>
+      <c r="AH45" s="2"/>
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
@@ -3293,21 +3341,22 @@
       <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
-      <c r="AQ45" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR45" s="3"/>
+      <c r="AQ45" s="3"/>
+      <c r="AR45" s="3">
+        <v>1</v>
+      </c>
       <c r="AS45" s="1"/>
       <c r="AT45" s="3"/>
       <c r="AU45" s="3"/>
       <c r="AV45" s="3"/>
       <c r="AW45" s="3"/>
-      <c r="AX45" s="6"/>
-      <c r="AY45" s="3"/>
-    </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX45" s="3"/>
+      <c r="AY45" s="6"/>
+      <c r="AZ45" s="3"/>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3341,7 +3390,7 @@
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="3"/>
+      <c r="AH46" s="2"/>
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
@@ -3350,21 +3399,22 @@
       <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
       <c r="AP46" s="3"/>
-      <c r="AQ46" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR46" s="3"/>
+      <c r="AQ46" s="3"/>
+      <c r="AR46" s="3">
+        <v>1</v>
+      </c>
       <c r="AS46" s="3"/>
       <c r="AT46" s="1"/>
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
       <c r="AW46" s="3"/>
-      <c r="AX46" s="6"/>
-      <c r="AY46" s="3"/>
-    </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX46" s="3"/>
+      <c r="AY46" s="6"/>
+      <c r="AZ46" s="3"/>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3398,7 +3448,7 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="3"/>
+      <c r="AH47" s="2"/>
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
@@ -3407,21 +3457,22 @@
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
       <c r="AP47" s="3"/>
-      <c r="AQ47" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR47" s="3"/>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="3">
+        <v>1</v>
+      </c>
       <c r="AS47" s="3"/>
       <c r="AT47" s="3"/>
       <c r="AU47" s="1"/>
       <c r="AV47" s="3"/>
       <c r="AW47" s="3"/>
-      <c r="AX47" s="6"/>
-      <c r="AY47" s="3"/>
-    </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX47" s="3"/>
+      <c r="AY47" s="6"/>
+      <c r="AZ47" s="3"/>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3455,7 +3506,7 @@
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="3"/>
+      <c r="AH48" s="2"/>
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
@@ -3464,21 +3515,22 @@
       <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
       <c r="AP48" s="3"/>
-      <c r="AQ48" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3">
+        <v>1</v>
+      </c>
       <c r="AS48" s="3"/>
       <c r="AT48" s="3"/>
       <c r="AU48" s="3"/>
       <c r="AV48" s="1"/>
       <c r="AW48" s="3"/>
-      <c r="AX48" s="6"/>
-      <c r="AY48" s="3"/>
-    </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX48" s="3"/>
+      <c r="AY48" s="6"/>
+      <c r="AZ48" s="3"/>
+    </row>
+    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3512,7 +3564,7 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="3"/>
+      <c r="AH49" s="2"/>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
@@ -3522,122 +3574,183 @@
       <c r="AO49" s="3"/>
       <c r="AP49" s="3"/>
       <c r="AQ49" s="3"/>
-      <c r="AR49" s="3"/>
+      <c r="AR49" s="3">
+        <v>1</v>
+      </c>
       <c r="AS49" s="3"/>
       <c r="AT49" s="3"/>
       <c r="AU49" s="3"/>
       <c r="AV49" s="3"/>
       <c r="AW49" s="1"/>
-      <c r="AX49" s="6"/>
-      <c r="AY49" s="3"/>
-    </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AX49" s="3"/>
+      <c r="AY49" s="6"/>
+      <c r="AZ49" s="3"/>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3"/>
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="3"/>
+      <c r="AM50" s="3"/>
+      <c r="AN50" s="3"/>
+      <c r="AO50" s="3"/>
+      <c r="AP50" s="3"/>
+      <c r="AQ50" s="3"/>
+      <c r="AR50" s="3"/>
+      <c r="AS50" s="3"/>
+      <c r="AT50" s="3"/>
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="3"/>
+      <c r="AW50" s="3"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="6"/>
+      <c r="AZ50" s="3"/>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
-      <c r="AD50" s="10"/>
-      <c r="AE50" s="10"/>
-      <c r="AF50" s="10"/>
-      <c r="AG50" s="10"/>
-      <c r="AH50" s="11"/>
-      <c r="AI50" s="11"/>
-      <c r="AJ50" s="11"/>
-      <c r="AK50" s="11"/>
-      <c r="AL50" s="11"/>
-      <c r="AM50" s="11"/>
-      <c r="AN50" s="11"/>
-      <c r="AO50" s="11"/>
-      <c r="AP50" s="11"/>
-      <c r="AQ50" s="11"/>
-      <c r="AR50" s="11"/>
-      <c r="AS50" s="11"/>
-      <c r="AT50" s="11"/>
-      <c r="AU50" s="11"/>
-      <c r="AV50" s="11"/>
-      <c r="AW50" s="11">
-        <v>1</v>
-      </c>
-      <c r="AX50" s="14"/>
-      <c r="AY50" s="3"/>
-    </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
-      <c r="AH51" s="2"/>
-      <c r="AI51" s="2"/>
-      <c r="AJ51" s="2"/>
-      <c r="AK51" s="2"/>
-      <c r="AL51" s="2"/>
-      <c r="AM51" s="2"/>
-      <c r="AN51" s="2"/>
-      <c r="AO51" s="2"/>
-      <c r="AP51" s="2"/>
-      <c r="AQ51" s="2"/>
-      <c r="AR51" s="2"/>
-      <c r="AS51" s="2"/>
-      <c r="AT51" s="2"/>
-      <c r="AU51" s="2"/>
-      <c r="AV51" s="2"/>
-      <c r="AW51" s="2"/>
-      <c r="AX51" s="2"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="11"/>
+      <c r="AN51" s="11"/>
+      <c r="AO51" s="11"/>
+      <c r="AP51" s="11"/>
+      <c r="AQ51" s="11"/>
+      <c r="AR51" s="11"/>
+      <c r="AS51" s="11"/>
+      <c r="AT51" s="11"/>
+      <c r="AU51" s="11"/>
+      <c r="AV51" s="11"/>
+      <c r="AW51" s="11"/>
+      <c r="AX51" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY51" s="14"/>
+      <c r="AZ51" s="3"/>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2"/>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="2"/>
+      <c r="AN52" s="2"/>
+      <c r="AO52" s="2"/>
+      <c r="AP52" s="2"/>
+      <c r="AQ52" s="2"/>
+      <c r="AR52" s="2"/>
+      <c r="AS52" s="2"/>
+      <c r="AT52" s="2"/>
+      <c r="AU52" s="2"/>
+      <c r="AV52" s="2"/>
+      <c r="AW52" s="2"/>
+      <c r="AX52" s="2"/>
+      <c r="AY52" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Matrice projetfinis.xlsx
+++ b/Matrice projetfinis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>ID_potion</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Nom_entreprise</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>Quantite_potion</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
   </si>
   <si>
     <t>Quantite_stock</t>
-  </si>
-  <si>
-    <t>Recette</t>
   </si>
 </sst>
 </file>
@@ -249,15 +243,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -292,6 +277,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -302,20 +296,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,9 +624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ52"/>
+  <dimension ref="A1:AZ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AH26" sqref="AH26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -792,18 +788,16 @@
       <c r="AV1" s="4">
         <v>48</v>
       </c>
-      <c r="AW1" s="9">
+      <c r="AW1" s="7">
         <v>49</v>
       </c>
-      <c r="AX1" s="4">
+      <c r="AX1" s="7">
         <v>50</v>
       </c>
-      <c r="AY1" s="4">
-        <v>51</v>
-      </c>
+      <c r="AY1" s="13"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -857,10 +851,10 @@
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
-      <c r="AY2" s="5"/>
+      <c r="AY2" s="13"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
@@ -916,11 +910,11 @@
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2"/>
-      <c r="AY3" s="5"/>
+      <c r="AY3" s="13"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>25</v>
+      <c r="A4" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -975,19 +969,17 @@
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
-      <c r="AY4" s="5"/>
+      <c r="AY4" s="13"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <v>1</v>
       </c>
@@ -1036,20 +1028,18 @@
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
-      <c r="AY5" s="5"/>
+      <c r="AY5" s="13"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1093,21 +1083,23 @@
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
-      <c r="AY6" s="5"/>
+      <c r="AY6" s="13"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>4</v>
+      <c r="A7" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1150,10 +1142,10 @@
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
-      <c r="AY7" s="5"/>
+      <c r="AY7" s="13"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2"/>
@@ -1161,13 +1153,9 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1209,11 +1197,11 @@
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
-      <c r="AY8" s="5"/>
+      <c r="AY8" s="13"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>27</v>
+      <c r="A9" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1221,11 +1209,13 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="2"/>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1266,11 +1256,11 @@
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
-      <c r="AY9" s="5"/>
+      <c r="AY9" s="13"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>5</v>
+      <c r="A10" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1278,14 +1268,12 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="2"/>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1325,10 +1313,10 @@
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
-      <c r="AY10" s="5"/>
+      <c r="AY10" s="13"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="2"/>
@@ -1337,16 +1325,14 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="11"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -1384,11 +1370,11 @@
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
       <c r="AX11" s="2"/>
-      <c r="AY11" s="5"/>
+      <c r="AY11" s="13"/>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>29</v>
+      <c r="A12" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1396,17 +1382,15 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="2"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1443,11 +1427,11 @@
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
-      <c r="AY12" s="5"/>
+      <c r="AY12" s="13"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>49</v>
+      <c r="A13" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1455,16 +1439,16 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="2"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1500,11 +1484,11 @@
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
-      <c r="AY13" s="5"/>
+      <c r="AY13" s="13"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>30</v>
+      <c r="A14" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1518,9 +1502,9 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="2"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -1555,11 +1539,11 @@
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
-      <c r="AY14" s="5"/>
+      <c r="AY14" s="13"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>3</v>
+      <c r="A15" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1573,12 +1557,14 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="12">
-        <v>1</v>
-      </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="2"/>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -1612,11 +1598,11 @@
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
-      <c r="AY15" s="5"/>
+      <c r="AY15" s="13"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>31</v>
+      <c r="A16" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1630,13 +1616,13 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2">
-        <v>1</v>
-      </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="2"/>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1669,11 +1655,11 @@
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
-      <c r="AY16" s="5"/>
+      <c r="AY16" s="13"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>45</v>
+      <c r="A17" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1688,13 +1674,11 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2">
-        <v>1</v>
-      </c>
+      <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="2"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="3"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -1726,11 +1710,11 @@
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
-      <c r="AY17" s="5"/>
+      <c r="AY17" s="13"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>32</v>
+      <c r="A18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1746,13 +1730,15 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="12">
-        <v>1</v>
-      </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="11"/>
+      <c r="T18" s="3"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -1783,11 +1769,11 @@
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
-      <c r="AY18" s="5"/>
+      <c r="AY18" s="13"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>6</v>
+      <c r="A19" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1804,13 +1790,13 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2">
-        <v>1</v>
-      </c>
-      <c r="S19" s="12"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="2"/>
+      <c r="Q19" s="2">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="3"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -1840,11 +1826,11 @@
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
       <c r="AX19" s="2"/>
-      <c r="AY19" s="5"/>
+      <c r="AY19" s="13"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>7</v>
+      <c r="A20" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1862,13 +1848,11 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="2">
-        <v>1</v>
-      </c>
+      <c r="R20" s="3"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="2"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="3"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
@@ -1897,11 +1881,11 @@
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
       <c r="AX20" s="2"/>
-      <c r="AY20" s="5"/>
+      <c r="AY20" s="13"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>8</v>
+      <c r="A21" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1921,12 +1905,14 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="12">
-        <v>1</v>
-      </c>
-      <c r="V21" s="3"/>
-      <c r="W21" s="2"/>
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1</v>
+      </c>
+      <c r="V21" s="11"/>
+      <c r="W21" s="3"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
@@ -1954,11 +1940,11 @@
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
-      <c r="AY21" s="5"/>
+      <c r="AY21" s="13"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>9</v>
+      <c r="A22" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1978,15 +1964,15 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2">
-        <v>1</v>
-      </c>
-      <c r="V22" s="12">
-        <v>1</v>
-      </c>
-      <c r="W22" s="3"/>
-      <c r="X22" s="2"/>
+      <c r="T22" s="2">
+        <v>1</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="V22" s="1">
+        <v>1</v>
+      </c>
+      <c r="W22" s="11"/>
+      <c r="X22" s="3"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -2013,11 +1999,11 @@
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
       <c r="AX22" s="2"/>
-      <c r="AY22" s="5"/>
+      <c r="AY22" s="13"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>10</v>
+      <c r="A23" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2037,16 +2023,14 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2">
-        <v>1</v>
-      </c>
-      <c r="V23" s="2">
-        <v>1</v>
-      </c>
-      <c r="W23" s="12"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="2"/>
+      <c r="T23" s="2">
+        <v>1</v>
+      </c>
+      <c r="U23" s="3"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="3"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
@@ -2072,10 +2056,10 @@
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
       <c r="AX23" s="2"/>
-      <c r="AY23" s="5"/>
+      <c r="AY23" s="13"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="2"/>
@@ -2097,20 +2081,16 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="3">
-        <v>1</v>
-      </c>
-      <c r="V24" s="2">
-        <v>1</v>
-      </c>
-      <c r="W24" s="2"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="2"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="3"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
+      <c r="AD24" s="3"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
@@ -2131,11 +2111,11 @@
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
       <c r="AX24" s="2"/>
-      <c r="AY24" s="5"/>
+      <c r="AY24" s="13"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>34</v>
+      <c r="A25" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2159,12 +2139,13 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="12">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="2"/>
+      <c r="X25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="3"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
@@ -2188,11 +2169,11 @@
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
       <c r="AX25" s="2"/>
-      <c r="AY25" s="5"/>
+      <c r="AY25" s="13"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>11</v>
+      <c r="A26" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2216,13 +2197,13 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="2"/>
+      <c r="X26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="3"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -2245,11 +2226,11 @@
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
       <c r="AX26" s="2"/>
-      <c r="AY26" s="5"/>
+      <c r="AY26" s="13"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>12</v>
+      <c r="A27" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2273,14 +2254,14 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2">
-        <v>1</v>
-      </c>
+      <c r="X27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="3"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="2"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="3"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
@@ -2302,11 +2283,11 @@
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
       <c r="AX27" s="2"/>
-      <c r="AY27" s="5"/>
+      <c r="AY27" s="13"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>35</v>
+      <c r="A28" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2330,18 +2311,18 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="3">
-        <v>1</v>
-      </c>
+      <c r="X28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="3"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
@@ -2359,11 +2340,11 @@
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
       <c r="AX28" s="2"/>
-      <c r="AY28" s="5"/>
+      <c r="AY28" s="13"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>46</v>
+      <c r="A29" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2388,39 +2369,37 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="3">
-        <v>1</v>
-      </c>
+      <c r="Y29" s="3"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="11"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
-      <c r="AL29" s="2"/>
-      <c r="AM29" s="2"/>
-      <c r="AN29" s="2"/>
-      <c r="AO29" s="2"/>
-      <c r="AP29" s="2"/>
-      <c r="AQ29" s="2"/>
-      <c r="AR29" s="2"/>
-      <c r="AS29" s="2"/>
-      <c r="AT29" s="2"/>
-      <c r="AU29" s="2"/>
-      <c r="AV29" s="2"/>
-      <c r="AW29" s="2"/>
-      <c r="AX29" s="2"/>
-      <c r="AY29" s="5"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="14"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>13</v>
+      <c r="A30" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2449,12 +2428,14 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
+      <c r="AC30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="2"/>
       <c r="AI30" s="3"/>
@@ -2473,12 +2454,12 @@
       <c r="AV30" s="3"/>
       <c r="AW30" s="3"/>
       <c r="AX30" s="3"/>
-      <c r="AY30" s="6"/>
+      <c r="AY30" s="14"/>
       <c r="AZ30" s="3"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>14</v>
+      <c r="A31" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2507,12 +2488,12 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="13"/>
+      <c r="AC31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="11"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="3"/>
@@ -2531,12 +2512,12 @@
       <c r="AV31" s="3"/>
       <c r="AW31" s="3"/>
       <c r="AX31" s="3"/>
-      <c r="AY31" s="6"/>
+      <c r="AY31" s="14"/>
       <c r="AZ31" s="3"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>15</v>
+      <c r="A32" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2565,14 +2546,14 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3">
-        <v>1</v>
-      </c>
+      <c r="AC32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
-      <c r="AF32" s="12"/>
+      <c r="AF32" s="1"/>
       <c r="AG32" s="3"/>
-      <c r="AH32" s="2"/>
+      <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
@@ -2589,12 +2570,12 @@
       <c r="AV32" s="3"/>
       <c r="AW32" s="3"/>
       <c r="AX32" s="3"/>
-      <c r="AY32" s="6"/>
+      <c r="AY32" s="14"/>
       <c r="AZ32" s="3"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>16</v>
+      <c r="A33" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2624,9 +2605,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="3"/>
-      <c r="AD33" s="3">
-        <v>1</v>
-      </c>
+      <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="1"/>
@@ -2647,12 +2626,12 @@
       <c r="AV33" s="3"/>
       <c r="AW33" s="3"/>
       <c r="AX33" s="3"/>
-      <c r="AY33" s="6"/>
+      <c r="AY33" s="14"/>
       <c r="AZ33" s="3"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>17</v>
+      <c r="A34" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2685,7 +2664,9 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
+      <c r="AG34" s="3">
+        <v>1</v>
+      </c>
       <c r="AH34" s="1">
         <v>1</v>
       </c>
@@ -2705,12 +2686,12 @@
       <c r="AV34" s="3"/>
       <c r="AW34" s="3"/>
       <c r="AX34" s="3"/>
-      <c r="AY34" s="6"/>
+      <c r="AY34" s="14"/>
       <c r="AZ34" s="3"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>18</v>
+      <c r="A35" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2739,14 +2720,14 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3">
-        <v>1</v>
-      </c>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="3"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
@@ -2763,11 +2744,11 @@
       <c r="AV35" s="3"/>
       <c r="AW35" s="3"/>
       <c r="AX35" s="3"/>
-      <c r="AY35" s="6"/>
+      <c r="AY35" s="14"/>
       <c r="AZ35" s="3"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="2"/>
@@ -2801,11 +2782,13 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI36" s="3"/>
+      <c r="AG36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ36" s="1">
         <v>1</v>
       </c>
@@ -2823,12 +2806,12 @@
       <c r="AV36" s="3"/>
       <c r="AW36" s="3"/>
       <c r="AX36" s="3"/>
-      <c r="AY36" s="6"/>
+      <c r="AY36" s="14"/>
       <c r="AZ36" s="3"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>48</v>
+      <c r="A37" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2862,13 +2845,9 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
-      <c r="AH37" s="3">
-        <v>1</v>
-      </c>
+      <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
-      <c r="AJ37" s="3">
-        <v>1</v>
-      </c>
+      <c r="AJ37" s="3"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
@@ -2883,12 +2862,12 @@
       <c r="AV37" s="3"/>
       <c r="AW37" s="3"/>
       <c r="AX37" s="3"/>
-      <c r="AY37" s="6"/>
+      <c r="AY37" s="14"/>
       <c r="AZ37" s="3"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>19</v>
+      <c r="A38" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2925,7 +2904,9 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
-      <c r="AK38" s="3"/>
+      <c r="AK38" s="3">
+        <v>1</v>
+      </c>
       <c r="AL38" s="1">
         <v>1</v>
       </c>
@@ -2941,12 +2922,12 @@
       <c r="AV38" s="3"/>
       <c r="AW38" s="3"/>
       <c r="AX38" s="3"/>
-      <c r="AY38" s="6"/>
+      <c r="AY38" s="14"/>
       <c r="AZ38" s="3"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>20</v>
+      <c r="A39" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2983,10 +2964,10 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
-      <c r="AL39" s="3">
-        <v>1</v>
-      </c>
+      <c r="AK39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="3"/>
       <c r="AM39" s="1"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
@@ -2999,12 +2980,12 @@
       <c r="AV39" s="3"/>
       <c r="AW39" s="3"/>
       <c r="AX39" s="3"/>
-      <c r="AY39" s="6"/>
+      <c r="AY39" s="14"/>
       <c r="AZ39" s="3"/>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>22</v>
+      <c r="A40" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3042,9 +3023,7 @@
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
-      <c r="AL40" s="3">
-        <v>1</v>
-      </c>
+      <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="1"/>
       <c r="AO40" s="3"/>
@@ -3057,12 +3036,12 @@
       <c r="AV40" s="3"/>
       <c r="AW40" s="3"/>
       <c r="AX40" s="3"/>
-      <c r="AY40" s="6"/>
+      <c r="AY40" s="14"/>
       <c r="AZ40" s="3"/>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3102,7 +3081,9 @@
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
       <c r="AM41" s="3"/>
-      <c r="AN41" s="3"/>
+      <c r="AN41" s="3">
+        <v>1</v>
+      </c>
       <c r="AO41" s="1">
         <v>1</v>
       </c>
@@ -3115,12 +3096,12 @@
       <c r="AV41" s="3"/>
       <c r="AW41" s="3"/>
       <c r="AX41" s="3"/>
-      <c r="AY41" s="6"/>
+      <c r="AY41" s="14"/>
       <c r="AZ41" s="3"/>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3160,11 +3141,13 @@
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
       <c r="AM42" s="3"/>
-      <c r="AN42" s="3"/>
+      <c r="AN42" s="3">
+        <v>1</v>
+      </c>
       <c r="AO42" s="3">
         <v>1</v>
       </c>
-      <c r="AP42" s="1">
+      <c r="AP42" s="10">
         <v>1</v>
       </c>
       <c r="AQ42" s="3"/>
@@ -3175,7 +3158,7 @@
       <c r="AV42" s="3"/>
       <c r="AW42" s="3"/>
       <c r="AX42" s="3"/>
-      <c r="AY42" s="6"/>
+      <c r="AY42" s="14"/>
       <c r="AZ42" s="3"/>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.3">
@@ -3221,13 +3204,9 @@
       <c r="AL43" s="3"/>
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
-      <c r="AO43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ43" s="1"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="10"/>
       <c r="AR43" s="3"/>
       <c r="AS43" s="3"/>
       <c r="AT43" s="3"/>
@@ -3235,7 +3214,7 @@
       <c r="AV43" s="3"/>
       <c r="AW43" s="3"/>
       <c r="AX43" s="3"/>
-      <c r="AY43" s="6"/>
+      <c r="AY43" s="14"/>
       <c r="AZ43" s="3"/>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.3">
@@ -3283,8 +3262,10 @@
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
       <c r="AP44" s="3"/>
-      <c r="AQ44" s="3"/>
-      <c r="AR44" s="1">
+      <c r="AQ44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="10">
         <v>1</v>
       </c>
       <c r="AS44" s="3"/>
@@ -3293,7 +3274,7 @@
       <c r="AV44" s="3"/>
       <c r="AW44" s="3"/>
       <c r="AX44" s="3"/>
-      <c r="AY44" s="6"/>
+      <c r="AY44" s="14"/>
       <c r="AZ44" s="3"/>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.3">
@@ -3341,17 +3322,17 @@
       <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
-      <c r="AQ45" s="3"/>
-      <c r="AR45" s="3">
-        <v>1</v>
-      </c>
-      <c r="AS45" s="1"/>
+      <c r="AQ45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="10"/>
       <c r="AT45" s="3"/>
       <c r="AU45" s="3"/>
       <c r="AV45" s="3"/>
       <c r="AW45" s="3"/>
       <c r="AX45" s="3"/>
-      <c r="AY45" s="6"/>
+      <c r="AY45" s="14"/>
       <c r="AZ45" s="3"/>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.3">
@@ -3399,17 +3380,17 @@
       <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
       <c r="AP46" s="3"/>
-      <c r="AQ46" s="3"/>
-      <c r="AR46" s="3">
-        <v>1</v>
-      </c>
+      <c r="AQ46" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR46" s="3"/>
       <c r="AS46" s="3"/>
-      <c r="AT46" s="1"/>
+      <c r="AT46" s="10"/>
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
       <c r="AW46" s="3"/>
       <c r="AX46" s="3"/>
-      <c r="AY46" s="6"/>
+      <c r="AY46" s="14"/>
       <c r="AZ46" s="3"/>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.3">
@@ -3457,17 +3438,17 @@
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
       <c r="AP47" s="3"/>
-      <c r="AQ47" s="3"/>
-      <c r="AR47" s="3">
-        <v>1</v>
-      </c>
+      <c r="AQ47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR47" s="3"/>
       <c r="AS47" s="3"/>
       <c r="AT47" s="3"/>
-      <c r="AU47" s="1"/>
+      <c r="AU47" s="10"/>
       <c r="AV47" s="3"/>
       <c r="AW47" s="3"/>
       <c r="AX47" s="3"/>
-      <c r="AY47" s="6"/>
+      <c r="AY47" s="14"/>
       <c r="AZ47" s="3"/>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.3">
@@ -3515,17 +3496,17 @@
       <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
       <c r="AP48" s="3"/>
-      <c r="AQ48" s="3"/>
-      <c r="AR48" s="3">
-        <v>1</v>
-      </c>
+      <c r="AQ48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR48" s="3"/>
       <c r="AS48" s="3"/>
       <c r="AT48" s="3"/>
       <c r="AU48" s="3"/>
-      <c r="AV48" s="1"/>
+      <c r="AV48" s="10"/>
       <c r="AW48" s="3"/>
       <c r="AX48" s="3"/>
-      <c r="AY48" s="6"/>
+      <c r="AY48" s="14"/>
       <c r="AZ48" s="3"/>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.3">
@@ -3574,183 +3555,128 @@
       <c r="AO49" s="3"/>
       <c r="AP49" s="3"/>
       <c r="AQ49" s="3"/>
-      <c r="AR49" s="3">
-        <v>1</v>
-      </c>
+      <c r="AR49" s="3"/>
       <c r="AS49" s="3"/>
       <c r="AT49" s="3"/>
       <c r="AU49" s="3"/>
-      <c r="AV49" s="3"/>
-      <c r="AW49" s="1"/>
+      <c r="AV49" s="11"/>
+      <c r="AW49" s="10"/>
       <c r="AX49" s="3"/>
-      <c r="AY49" s="6"/>
+      <c r="AY49" s="14"/>
       <c r="AZ49" s="3"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
-      <c r="AF50" s="2"/>
-      <c r="AG50" s="2"/>
-      <c r="AH50" s="2"/>
-      <c r="AI50" s="3"/>
-      <c r="AJ50" s="3"/>
-      <c r="AK50" s="3"/>
-      <c r="AL50" s="3"/>
-      <c r="AM50" s="3"/>
-      <c r="AN50" s="3"/>
-      <c r="AO50" s="3"/>
-      <c r="AP50" s="3"/>
-      <c r="AQ50" s="3"/>
-      <c r="AR50" s="3"/>
-      <c r="AS50" s="3"/>
-      <c r="AT50" s="3"/>
-      <c r="AU50" s="3"/>
-      <c r="AV50" s="3"/>
-      <c r="AW50" s="3"/>
-      <c r="AX50" s="1"/>
-      <c r="AY50" s="6"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="9"/>
+      <c r="AJ50" s="9"/>
+      <c r="AK50" s="9"/>
+      <c r="AL50" s="9"/>
+      <c r="AM50" s="9"/>
+      <c r="AN50" s="9"/>
+      <c r="AO50" s="9"/>
+      <c r="AP50" s="9"/>
+      <c r="AQ50" s="9"/>
+      <c r="AR50" s="9"/>
+      <c r="AS50" s="9"/>
+      <c r="AT50" s="9"/>
+      <c r="AU50" s="9"/>
+      <c r="AV50" s="9"/>
+      <c r="AW50" s="9">
+        <v>1</v>
+      </c>
+      <c r="AX50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AY50" s="14"/>
       <c r="AZ50" s="3"/>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
-      <c r="AB51" s="10"/>
-      <c r="AC51" s="10"/>
-      <c r="AD51" s="10"/>
-      <c r="AE51" s="10"/>
-      <c r="AF51" s="10"/>
-      <c r="AG51" s="10"/>
-      <c r="AH51" s="10"/>
-      <c r="AI51" s="11"/>
-      <c r="AJ51" s="11"/>
-      <c r="AK51" s="11"/>
-      <c r="AL51" s="11"/>
-      <c r="AM51" s="11"/>
-      <c r="AN51" s="11"/>
-      <c r="AO51" s="11"/>
-      <c r="AP51" s="11"/>
-      <c r="AQ51" s="11"/>
-      <c r="AR51" s="11"/>
-      <c r="AS51" s="11"/>
-      <c r="AT51" s="11"/>
-      <c r="AU51" s="11"/>
-      <c r="AV51" s="11"/>
-      <c r="AW51" s="11"/>
-      <c r="AX51" s="11">
-        <v>1</v>
-      </c>
-      <c r="AY51" s="14"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="2"/>
+      <c r="AO51" s="2"/>
+      <c r="AP51" s="2"/>
+      <c r="AQ51" s="2"/>
+      <c r="AR51" s="2"/>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="2"/>
+      <c r="AU51" s="2"/>
+      <c r="AV51" s="2"/>
+      <c r="AW51" s="2"/>
+      <c r="AX51" s="2"/>
+      <c r="AY51" s="3"/>
       <c r="AZ51" s="3"/>
-    </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
-      <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="2"/>
-      <c r="AF52" s="2"/>
-      <c r="AG52" s="2"/>
-      <c r="AH52" s="2"/>
-      <c r="AI52" s="2"/>
-      <c r="AJ52" s="2"/>
-      <c r="AK52" s="2"/>
-      <c r="AL52" s="2"/>
-      <c r="AM52" s="2"/>
-      <c r="AN52" s="2"/>
-      <c r="AO52" s="2"/>
-      <c r="AP52" s="2"/>
-      <c r="AQ52" s="2"/>
-      <c r="AR52" s="2"/>
-      <c r="AS52" s="2"/>
-      <c r="AT52" s="2"/>
-      <c r="AU52" s="2"/>
-      <c r="AV52" s="2"/>
-      <c r="AW52" s="2"/>
-      <c r="AX52" s="2"/>
-      <c r="AY52" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
